--- a/templateSchedule.xlsx
+++ b/templateSchedule.xlsx
@@ -6,12 +6,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\ScheduleTrakv0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\Local Backups\ScheduleTrak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F86351-2ABA-4D8D-87E3-CED6D4407216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41271128-2318-4B45-86E3-F5BFC5858867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutomationSchedule" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="26">
   <si>
     <t>Key</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Jack Doe</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -594,24 +600,6 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -642,6 +630,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1120,7 +1120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,14 +1136,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1225,11 +1225,11 @@
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
@@ -1240,8 +1240,8 @@
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
@@ -1249,11 +1249,11 @@
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
@@ -1261,11 +1261,11 @@
       <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
     </row>
@@ -1347,11 +1347,11 @@
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
@@ -1362,8 +1362,8 @@
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
@@ -1371,11 +1371,11 @@
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
@@ -1383,11 +1383,11 @@
       <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
     </row>
@@ -1472,8 +1472,8 @@
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="52"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
@@ -1484,8 +1484,8 @@
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
@@ -1493,11 +1493,11 @@
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
@@ -1505,11 +1505,11 @@
       <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
     </row>
@@ -1591,11 +1591,11 @@
       <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
@@ -1603,11 +1603,11 @@
       <c r="A27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
@@ -1615,11 +1615,11 @@
       <c r="A28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
@@ -1627,11 +1627,11 @@
       <c r="A29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
     </row>
@@ -1713,11 +1713,11 @@
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
@@ -1725,11 +1725,11 @@
       <c r="A34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
@@ -1737,11 +1737,11 @@
       <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
@@ -1749,11 +1749,11 @@
       <c r="A36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
@@ -1782,774 +1782,1346 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="A39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12">
+        <v>45334</v>
+      </c>
+      <c r="C39" s="12">
+        <v>45335</v>
+      </c>
+      <c r="D39" s="12">
+        <v>45336</v>
+      </c>
+      <c r="E39" s="12">
+        <v>45337</v>
+      </c>
+      <c r="F39" s="12">
+        <v>45338</v>
+      </c>
+      <c r="G39" s="12">
+        <v>45339</v>
+      </c>
+      <c r="H39" s="12">
+        <v>45340</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="A40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="A41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="A42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="A43" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="A44" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="A46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="12">
+        <v>45341</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45342</v>
+      </c>
+      <c r="D46" s="12">
+        <v>45343</v>
+      </c>
+      <c r="E46" s="12">
+        <v>45344</v>
+      </c>
+      <c r="F46" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G46" s="12">
+        <v>45346</v>
+      </c>
+      <c r="H46" s="12">
+        <v>45347</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="A47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="A48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="A49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="A51" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="A53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="12">
+        <v>45348</v>
+      </c>
+      <c r="C53" s="12">
+        <v>45349</v>
+      </c>
+      <c r="D53" s="12">
+        <v>45350</v>
+      </c>
+      <c r="E53" s="12">
+        <v>45351</v>
+      </c>
+      <c r="F53" s="12">
+        <v>45352</v>
+      </c>
+      <c r="G53" s="12">
+        <v>45353</v>
+      </c>
+      <c r="H53" s="12">
+        <v>45354</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="A54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="A55" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="A56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="A57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="A58" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="A60" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="12">
+        <v>45355</v>
+      </c>
+      <c r="C60" s="12">
+        <v>45356</v>
+      </c>
+      <c r="D60" s="12">
+        <v>45357</v>
+      </c>
+      <c r="E60" s="12">
+        <v>45358</v>
+      </c>
+      <c r="F60" s="12">
+        <v>45359</v>
+      </c>
+      <c r="G60" s="12">
+        <v>45360</v>
+      </c>
+      <c r="H60" s="12">
+        <v>45361</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="A61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="46"/>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="A63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="46"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="A64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="A65" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
+      <c r="A67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="12">
+        <v>45362</v>
+      </c>
+      <c r="C67" s="12">
+        <v>45363</v>
+      </c>
+      <c r="D67" s="12">
+        <v>45364</v>
+      </c>
+      <c r="E67" s="12">
+        <v>45365</v>
+      </c>
+      <c r="F67" s="12">
+        <v>45366</v>
+      </c>
+      <c r="G67" s="12">
+        <v>45367</v>
+      </c>
+      <c r="H67" s="12">
+        <v>45368</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="A68" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="A69" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="A70" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="A71" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="A72" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
+      <c r="A74" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="12">
+        <v>45369</v>
+      </c>
+      <c r="C74" s="12">
+        <v>45370</v>
+      </c>
+      <c r="D74" s="12">
+        <v>45371</v>
+      </c>
+      <c r="E74" s="12">
+        <v>45372</v>
+      </c>
+      <c r="F74" s="12">
+        <v>45373</v>
+      </c>
+      <c r="G74" s="12">
+        <v>45374</v>
+      </c>
+      <c r="H74" s="12">
+        <v>45375</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="46"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
+      <c r="A76" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="46"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
+      <c r="A77" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="46"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+      <c r="A78" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
+      <c r="A79" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="A81" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="12">
+        <v>45376</v>
+      </c>
+      <c r="C81" s="12">
+        <v>45377</v>
+      </c>
+      <c r="D81" s="12">
+        <v>45378</v>
+      </c>
+      <c r="E81" s="12">
+        <v>45379</v>
+      </c>
+      <c r="F81" s="12">
+        <v>45380</v>
+      </c>
+      <c r="G81" s="12">
+        <v>45381</v>
+      </c>
+      <c r="H81" s="12">
+        <v>45382</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
+      <c r="A82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
+      <c r="A83" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="A84" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="A85" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
+      <c r="A86" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="A88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="12">
+        <v>45383</v>
+      </c>
+      <c r="C88" s="12">
+        <v>45384</v>
+      </c>
+      <c r="D88" s="12">
+        <v>45385</v>
+      </c>
+      <c r="E88" s="12">
+        <v>45386</v>
+      </c>
+      <c r="F88" s="12">
+        <v>45387</v>
+      </c>
+      <c r="G88" s="12">
+        <v>45388</v>
+      </c>
+      <c r="H88" s="12">
+        <v>45389</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="A89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
+      <c r="A90" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
+      <c r="A91" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
+      <c r="A92" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="A93" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+      <c r="A95" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="12">
+        <v>45390</v>
+      </c>
+      <c r="C95" s="12">
+        <v>45391</v>
+      </c>
+      <c r="D95" s="12">
+        <v>45392</v>
+      </c>
+      <c r="E95" s="12">
+        <v>45393</v>
+      </c>
+      <c r="F95" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G95" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H95" s="12">
+        <v>45396</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="A96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="A97" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
+      <c r="A98" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
+      <c r="A99" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
+      <c r="A100" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
+      <c r="A102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="12">
+        <v>45397</v>
+      </c>
+      <c r="C102" s="12">
+        <v>45398</v>
+      </c>
+      <c r="D102" s="12">
+        <v>45399</v>
+      </c>
+      <c r="E102" s="12">
+        <v>45400</v>
+      </c>
+      <c r="F102" s="12">
+        <v>45401</v>
+      </c>
+      <c r="G102" s="12">
+        <v>45402</v>
+      </c>
+      <c r="H102" s="12">
+        <v>45403</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
+      <c r="A103" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
+      <c r="A104" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
+      <c r="A105" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
+      <c r="A106" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
+      <c r="A107" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
+      <c r="A109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="12">
+        <v>45404</v>
+      </c>
+      <c r="C109" s="12">
+        <v>45405</v>
+      </c>
+      <c r="D109" s="12">
+        <v>45406</v>
+      </c>
+      <c r="E109" s="12">
+        <v>45407</v>
+      </c>
+      <c r="F109" s="12">
+        <v>45408</v>
+      </c>
+      <c r="G109" s="12">
+        <v>45409</v>
+      </c>
+      <c r="H109" s="12">
+        <v>45410</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
+      <c r="A110" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
+      <c r="A111" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
+      <c r="A112" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
+      <c r="A113" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
+      <c r="A114" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
@@ -2593,11 +3165,11 @@
     </row>
     <row r="119" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
       <c r="G119" s="21"/>
       <c r="H119" s="21"/>
     </row>
@@ -2643,11 +3215,11 @@
     </row>
     <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
     </row>
@@ -2663,21 +3235,21 @@
     </row>
     <row r="126" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
     </row>
     <row r="127" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
     </row>
@@ -2703,11 +3275,11 @@
     </row>
     <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
       <c r="G130" s="21"/>
       <c r="H130" s="21"/>
     </row>
@@ -2723,11 +3295,11 @@
     </row>
     <row r="132" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
     </row>
@@ -2773,11 +3345,11 @@
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="40"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
     </row>
@@ -2793,21 +3365,21 @@
     </row>
     <row r="139" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="40"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
       <c r="G139" s="21"/>
       <c r="H139" s="21"/>
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="40"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
       <c r="G140" s="21"/>
       <c r="H140" s="21"/>
     </row>
@@ -2823,51 +3395,51 @@
     </row>
     <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="40"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="40"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
     </row>
     <row r="144" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="40"/>
-      <c r="F144" s="40"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="40"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="40"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
       <c r="G146" s="21"/>
       <c r="H146" s="21"/>
     </row>
@@ -2883,11 +3455,11 @@
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
     </row>
@@ -2933,10 +3505,10 @@
     </row>
     <row r="153" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="40"/>
-      <c r="E153" s="40"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -2963,10 +3535,10 @@
     </row>
     <row r="156" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
       <c r="F156" s="20"/>
       <c r="G156" s="21"/>
       <c r="H156" s="21"/>
@@ -2983,60 +3555,60 @@
     </row>
     <row r="158" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
-      <c r="E158" s="40"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
     </row>
     <row r="159" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
-      <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
-      <c r="E159" s="40"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
     </row>
     <row r="160" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="40"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
-      <c r="B161" s="40"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="40"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
       <c r="F161" s="20"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="40"/>
+      <c r="B162" s="50"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
-      <c r="B163" s="40"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="40"/>
-      <c r="E163" s="40"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="50"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -3053,10 +3625,10 @@
     </row>
     <row r="165" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
       <c r="F165" s="27"/>
       <c r="G165" s="21"/>
       <c r="H165" s="21"/>
@@ -3103,21 +3675,21 @@
     </row>
     <row r="170" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="40"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="40"/>
-      <c r="F171" s="40"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
       <c r="G171" s="21"/>
       <c r="H171" s="21"/>
     </row>
@@ -3133,11 +3705,11 @@
     </row>
     <row r="173" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
-      <c r="B173" s="40"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="40"/>
-      <c r="F173" s="40"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
       <c r="G173" s="21"/>
       <c r="H173" s="21"/>
     </row>
@@ -3153,61 +3725,61 @@
     </row>
     <row r="175" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="40"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="40"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
       <c r="G175" s="21"/>
       <c r="H175" s="21"/>
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50"/>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="40"/>
-      <c r="F177" s="40"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
     </row>
     <row r="179" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
     </row>
     <row r="180" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="40"/>
-      <c r="F180" s="40"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
     </row>
@@ -3223,11 +3795,11 @@
     </row>
     <row r="182" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="39"/>
+      <c r="B182" s="51"/>
+      <c r="C182" s="51"/>
+      <c r="D182" s="51"/>
+      <c r="E182" s="51"/>
+      <c r="F182" s="51"/>
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
     </row>
@@ -3273,11 +3845,11 @@
     </row>
     <row r="187" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="22"/>
-      <c r="B187" s="40"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="40"/>
-      <c r="F187" s="40"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
     </row>
@@ -3293,21 +3865,21 @@
     </row>
     <row r="189" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="22"/>
-      <c r="B189" s="40"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="40"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
       <c r="G189" s="21"/>
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40"/>
-      <c r="E190" s="40"/>
-      <c r="F190" s="40"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
     </row>
@@ -3323,61 +3895,61 @@
     </row>
     <row r="192" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="40"/>
-      <c r="E192" s="40"/>
-      <c r="F192" s="40"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
-      <c r="B193" s="40"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40"/>
-      <c r="E193" s="40"/>
-      <c r="F193" s="40"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="40"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="40"/>
-      <c r="E195" s="40"/>
-      <c r="F195" s="40"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
     </row>
     <row r="196" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="40"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
     </row>
     <row r="197" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
-      <c r="B197" s="40"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
     </row>
@@ -3393,11 +3965,11 @@
     </row>
     <row r="199" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="22"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="39"/>
+      <c r="B199" s="51"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="51"/>
+      <c r="E199" s="51"/>
+      <c r="F199" s="51"/>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
     </row>
@@ -3443,11 +4015,11 @@
     </row>
     <row r="204" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="22"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
     </row>
@@ -3463,21 +4035,21 @@
     </row>
     <row r="206" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="22"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="40"/>
-      <c r="F206" s="40"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
     </row>
     <row r="207" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
-      <c r="B207" s="40"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="40"/>
-      <c r="F207" s="40"/>
+      <c r="B207" s="50"/>
+      <c r="C207" s="50"/>
+      <c r="D207" s="50"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="50"/>
       <c r="G207" s="21"/>
       <c r="H207" s="21"/>
     </row>
@@ -3493,31 +4065,31 @@
     </row>
     <row r="209" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="40"/>
-      <c r="F209" s="40"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="50"/>
+      <c r="D209" s="50"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="50"/>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
     </row>
     <row r="210" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
-      <c r="B210" s="40"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="40"/>
+      <c r="B210" s="50"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="50"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="50"/>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
     </row>
     <row r="211" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40"/>
-      <c r="E211" s="40"/>
-      <c r="F211" s="40"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="50"/>
+      <c r="D211" s="50"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="50"/>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
     </row>
@@ -3533,11 +4105,11 @@
     </row>
     <row r="213" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="22"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
+      <c r="B213" s="51"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="51"/>
+      <c r="E213" s="51"/>
+      <c r="F213" s="51"/>
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
     </row>
@@ -3583,11 +4155,11 @@
     </row>
     <row r="218" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="22"/>
-      <c r="B218" s="40"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
-      <c r="E218" s="40"/>
-      <c r="F218" s="40"/>
+      <c r="B218" s="50"/>
+      <c r="C218" s="50"/>
+      <c r="D218" s="50"/>
+      <c r="E218" s="50"/>
+      <c r="F218" s="50"/>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
     </row>
@@ -3603,21 +4175,21 @@
     </row>
     <row r="220" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="22"/>
-      <c r="B220" s="40"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="40"/>
-      <c r="F220" s="40"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
+      <c r="F220" s="50"/>
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
     </row>
     <row r="221" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="B221" s="40"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="40"/>
-      <c r="F221" s="40"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="50"/>
+      <c r="E221" s="50"/>
+      <c r="F221" s="50"/>
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
     </row>
@@ -3633,31 +4205,31 @@
     </row>
     <row r="223" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="40"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="50"/>
+      <c r="D223" s="50"/>
+      <c r="E223" s="50"/>
+      <c r="F223" s="50"/>
       <c r="G223" s="21"/>
       <c r="H223" s="21"/>
     </row>
     <row r="224" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="40"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="50"/>
+      <c r="D224" s="50"/>
+      <c r="E224" s="50"/>
+      <c r="F224" s="50"/>
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
     </row>
     <row r="225" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="40"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="50"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="50"/>
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
     </row>
@@ -3673,11 +4245,11 @@
     </row>
     <row r="227" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="22"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="51"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="51"/>
       <c r="G227" s="21"/>
       <c r="H227" s="21"/>
     </row>
@@ -3715,9 +4287,9 @@
       <c r="A231" s="17"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
-      <c r="D231" s="40"/>
-      <c r="E231" s="40"/>
-      <c r="F231" s="40"/>
+      <c r="D231" s="50"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
       <c r="G231" s="21"/>
       <c r="H231" s="21"/>
     </row>
@@ -3743,21 +4315,21 @@
     </row>
     <row r="234" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="22"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="40"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="40"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="50"/>
+      <c r="D234" s="50"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
     </row>
     <row r="235" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="40"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="50"/>
+      <c r="D235" s="50"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
       <c r="G235" s="21"/>
       <c r="H235" s="21"/>
     </row>
@@ -3773,31 +4345,31 @@
     </row>
     <row r="237" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="40"/>
-      <c r="F237" s="40"/>
+      <c r="B237" s="50"/>
+      <c r="C237" s="50"/>
+      <c r="D237" s="50"/>
+      <c r="E237" s="50"/>
+      <c r="F237" s="50"/>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
     </row>
     <row r="238" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="B238" s="40"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="40"/>
-      <c r="F238" s="40"/>
+      <c r="B238" s="50"/>
+      <c r="C238" s="50"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40"/>
-      <c r="F239" s="40"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="50"/>
+      <c r="D239" s="50"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
     </row>
@@ -3813,11 +4385,11 @@
     </row>
     <row r="241" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="22"/>
-      <c r="B241" s="39"/>
-      <c r="C241" s="39"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="39"/>
-      <c r="F241" s="39"/>
+      <c r="B241" s="51"/>
+      <c r="C241" s="51"/>
+      <c r="D241" s="51"/>
+      <c r="E241" s="51"/>
+      <c r="F241" s="51"/>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
     </row>
@@ -3855,19 +4427,19 @@
       <c r="A245" s="17"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
-      <c r="D245" s="40"/>
-      <c r="E245" s="40"/>
-      <c r="F245" s="40"/>
+      <c r="D245" s="50"/>
+      <c r="E245" s="50"/>
+      <c r="F245" s="50"/>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
     </row>
     <row r="246" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="22"/>
-      <c r="B246" s="40"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="40"/>
-      <c r="E246" s="40"/>
-      <c r="F246" s="40"/>
+      <c r="B246" s="50"/>
+      <c r="C246" s="50"/>
+      <c r="D246" s="50"/>
+      <c r="E246" s="50"/>
+      <c r="F246" s="50"/>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
     </row>
@@ -3883,21 +4455,21 @@
     </row>
     <row r="248" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="22"/>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="40"/>
+      <c r="B248" s="50"/>
+      <c r="C248" s="50"/>
+      <c r="D248" s="50"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="50"/>
       <c r="G248" s="21"/>
       <c r="H248" s="21"/>
     </row>
     <row r="249" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="B249" s="40"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="40"/>
-      <c r="E249" s="40"/>
-      <c r="F249" s="40"/>
+      <c r="B249" s="50"/>
+      <c r="C249" s="50"/>
+      <c r="D249" s="50"/>
+      <c r="E249" s="50"/>
+      <c r="F249" s="50"/>
       <c r="G249" s="21"/>
       <c r="H249" s="21"/>
     </row>
@@ -3913,31 +4485,31 @@
     </row>
     <row r="251" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="B251" s="40"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="40"/>
-      <c r="E251" s="40"/>
-      <c r="F251" s="40"/>
+      <c r="B251" s="50"/>
+      <c r="C251" s="50"/>
+      <c r="D251" s="50"/>
+      <c r="E251" s="50"/>
+      <c r="F251" s="50"/>
       <c r="G251" s="21"/>
       <c r="H251" s="21"/>
     </row>
     <row r="252" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="B252" s="40"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="40"/>
-      <c r="E252" s="40"/>
-      <c r="F252" s="40"/>
+      <c r="B252" s="50"/>
+      <c r="C252" s="50"/>
+      <c r="D252" s="50"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="50"/>
       <c r="G252" s="21"/>
       <c r="H252" s="21"/>
     </row>
     <row r="253" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="40"/>
+      <c r="B253" s="50"/>
+      <c r="C253" s="50"/>
+      <c r="D253" s="50"/>
+      <c r="E253" s="50"/>
+      <c r="F253" s="50"/>
       <c r="G253" s="21"/>
       <c r="H253" s="21"/>
     </row>
@@ -3953,11 +4525,11 @@
     </row>
     <row r="255" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="22"/>
-      <c r="B255" s="39"/>
-      <c r="C255" s="39"/>
-      <c r="D255" s="39"/>
-      <c r="E255" s="39"/>
-      <c r="F255" s="39"/>
+      <c r="B255" s="51"/>
+      <c r="C255" s="51"/>
+      <c r="D255" s="51"/>
+      <c r="E255" s="51"/>
+      <c r="F255" s="51"/>
       <c r="G255" s="21"/>
       <c r="H255" s="21"/>
     </row>
@@ -4003,41 +4575,41 @@
     </row>
     <row r="260" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="22"/>
-      <c r="B260" s="43"/>
-      <c r="C260" s="43"/>
-      <c r="D260" s="43"/>
-      <c r="E260" s="43"/>
-      <c r="F260" s="43"/>
+      <c r="B260" s="52"/>
+      <c r="C260" s="52"/>
+      <c r="D260" s="52"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="52"/>
       <c r="G260" s="21"/>
       <c r="H260" s="21"/>
     </row>
     <row r="261" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="22"/>
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="40"/>
-      <c r="E261" s="40"/>
-      <c r="F261" s="40"/>
+      <c r="B261" s="50"/>
+      <c r="C261" s="50"/>
+      <c r="D261" s="50"/>
+      <c r="E261" s="50"/>
+      <c r="F261" s="50"/>
       <c r="G261" s="21"/>
       <c r="H261" s="21"/>
     </row>
     <row r="262" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="22"/>
-      <c r="B262" s="40"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="40"/>
-      <c r="E262" s="40"/>
-      <c r="F262" s="40"/>
+      <c r="B262" s="50"/>
+      <c r="C262" s="50"/>
+      <c r="D262" s="50"/>
+      <c r="E262" s="50"/>
+      <c r="F262" s="50"/>
       <c r="G262" s="21"/>
       <c r="H262" s="21"/>
     </row>
     <row r="263" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="40"/>
-      <c r="E263" s="40"/>
-      <c r="F263" s="40"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="50"/>
+      <c r="D263" s="50"/>
+      <c r="E263" s="50"/>
+      <c r="F263" s="50"/>
       <c r="G263" s="21"/>
       <c r="H263" s="21"/>
     </row>
@@ -4053,31 +4625,31 @@
     </row>
     <row r="265" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
-      <c r="D265" s="40"/>
-      <c r="E265" s="40"/>
-      <c r="F265" s="40"/>
+      <c r="B265" s="50"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="50"/>
+      <c r="E265" s="50"/>
+      <c r="F265" s="50"/>
       <c r="G265" s="21"/>
       <c r="H265" s="21"/>
     </row>
     <row r="266" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="40"/>
-      <c r="E266" s="40"/>
-      <c r="F266" s="40"/>
+      <c r="B266" s="50"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="50"/>
+      <c r="E266" s="50"/>
+      <c r="F266" s="50"/>
       <c r="G266" s="21"/>
       <c r="H266" s="21"/>
     </row>
     <row r="267" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
-      <c r="B267" s="40"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="40"/>
-      <c r="E267" s="40"/>
-      <c r="F267" s="40"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="50"/>
+      <c r="D267" s="50"/>
+      <c r="E267" s="50"/>
+      <c r="F267" s="50"/>
       <c r="G267" s="21"/>
       <c r="H267" s="21"/>
     </row>
@@ -4093,11 +4665,11 @@
     </row>
     <row r="269" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="22"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
-      <c r="D269" s="39"/>
-      <c r="E269" s="39"/>
-      <c r="F269" s="39"/>
+      <c r="B269" s="51"/>
+      <c r="C269" s="51"/>
+      <c r="D269" s="51"/>
+      <c r="E269" s="51"/>
+      <c r="F269" s="51"/>
       <c r="G269" s="21"/>
       <c r="H269" s="21"/>
     </row>
@@ -4153,31 +4725,31 @@
     </row>
     <row r="275" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="22"/>
-      <c r="B275" s="40"/>
-      <c r="C275" s="40"/>
-      <c r="D275" s="40"/>
-      <c r="E275" s="40"/>
-      <c r="F275" s="40"/>
+      <c r="B275" s="50"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="50"/>
+      <c r="E275" s="50"/>
+      <c r="F275" s="50"/>
       <c r="G275" s="21"/>
       <c r="H275" s="21"/>
     </row>
     <row r="276" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="22"/>
-      <c r="B276" s="40"/>
-      <c r="C276" s="40"/>
-      <c r="D276" s="40"/>
-      <c r="E276" s="40"/>
-      <c r="F276" s="40"/>
+      <c r="B276" s="50"/>
+      <c r="C276" s="50"/>
+      <c r="D276" s="50"/>
+      <c r="E276" s="50"/>
+      <c r="F276" s="50"/>
       <c r="G276" s="21"/>
       <c r="H276" s="21"/>
     </row>
     <row r="277" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
-      <c r="B277" s="40"/>
-      <c r="C277" s="40"/>
-      <c r="D277" s="40"/>
-      <c r="E277" s="40"/>
-      <c r="F277" s="40"/>
+      <c r="B277" s="50"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="50"/>
+      <c r="E277" s="50"/>
+      <c r="F277" s="50"/>
       <c r="G277" s="21"/>
       <c r="H277" s="21"/>
     </row>
@@ -4193,31 +4765,31 @@
     </row>
     <row r="279" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
-      <c r="D279" s="40"/>
-      <c r="E279" s="40"/>
-      <c r="F279" s="40"/>
+      <c r="B279" s="50"/>
+      <c r="C279" s="50"/>
+      <c r="D279" s="50"/>
+      <c r="E279" s="50"/>
+      <c r="F279" s="50"/>
       <c r="G279" s="21"/>
       <c r="H279" s="21"/>
     </row>
     <row r="280" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="40"/>
-      <c r="E280" s="40"/>
-      <c r="F280" s="40"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="50"/>
+      <c r="D280" s="50"/>
+      <c r="E280" s="50"/>
+      <c r="F280" s="50"/>
       <c r="G280" s="21"/>
       <c r="H280" s="21"/>
     </row>
     <row r="281" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
-      <c r="B281" s="40"/>
-      <c r="C281" s="40"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="40"/>
-      <c r="F281" s="40"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="50"/>
+      <c r="D281" s="50"/>
+      <c r="E281" s="50"/>
+      <c r="F281" s="50"/>
       <c r="G281" s="21"/>
       <c r="H281" s="21"/>
     </row>
@@ -4233,11 +4805,11 @@
     </row>
     <row r="283" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="22"/>
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
-      <c r="D283" s="39"/>
-      <c r="E283" s="39"/>
-      <c r="F283" s="39"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="51"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="51"/>
+      <c r="F283" s="51"/>
       <c r="G283" s="21"/>
       <c r="H283" s="21"/>
     </row>
@@ -4294,30 +4866,30 @@
     <row r="289" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="22"/>
       <c r="B289" s="20"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="40"/>
-      <c r="E289" s="40"/>
-      <c r="F289" s="40"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="50"/>
+      <c r="E289" s="50"/>
+      <c r="F289" s="50"/>
       <c r="G289" s="21"/>
       <c r="H289" s="21"/>
     </row>
     <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="22"/>
       <c r="B290" s="20"/>
-      <c r="C290" s="40"/>
-      <c r="D290" s="40"/>
-      <c r="E290" s="40"/>
-      <c r="F290" s="40"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="50"/>
       <c r="G290" s="21"/>
       <c r="H290" s="21"/>
     </row>
     <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="20"/>
-      <c r="C291" s="40"/>
-      <c r="D291" s="40"/>
-      <c r="E291" s="40"/>
-      <c r="F291" s="40"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="50"/>
+      <c r="E291" s="50"/>
+      <c r="F291" s="50"/>
       <c r="G291" s="21"/>
       <c r="H291" s="21"/>
     </row>
@@ -4334,30 +4906,30 @@
     <row r="293" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="20"/>
-      <c r="C293" s="40"/>
-      <c r="D293" s="40"/>
-      <c r="E293" s="40"/>
-      <c r="F293" s="40"/>
+      <c r="C293" s="50"/>
+      <c r="D293" s="50"/>
+      <c r="E293" s="50"/>
+      <c r="F293" s="50"/>
       <c r="G293" s="21"/>
       <c r="H293" s="21"/>
     </row>
     <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="17"/>
       <c r="B294" s="20"/>
-      <c r="C294" s="40"/>
-      <c r="D294" s="40"/>
-      <c r="E294" s="40"/>
-      <c r="F294" s="40"/>
+      <c r="C294" s="50"/>
+      <c r="D294" s="50"/>
+      <c r="E294" s="50"/>
+      <c r="F294" s="50"/>
       <c r="G294" s="21"/>
       <c r="H294" s="21"/>
     </row>
     <row r="295" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="20"/>
-      <c r="C295" s="40"/>
-      <c r="D295" s="40"/>
-      <c r="E295" s="40"/>
-      <c r="F295" s="40"/>
+      <c r="C295" s="50"/>
+      <c r="D295" s="50"/>
+      <c r="E295" s="50"/>
+      <c r="F295" s="50"/>
       <c r="G295" s="21"/>
       <c r="H295" s="21"/>
     </row>
@@ -4374,10 +4946,10 @@
     <row r="297" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="22"/>
       <c r="B297" s="1"/>
-      <c r="C297" s="39"/>
-      <c r="D297" s="39"/>
-      <c r="E297" s="39"/>
-      <c r="F297" s="39"/>
+      <c r="C297" s="51"/>
+      <c r="D297" s="51"/>
+      <c r="E297" s="51"/>
+      <c r="F297" s="51"/>
       <c r="G297" s="21"/>
       <c r="H297" s="21"/>
     </row>
@@ -4433,31 +5005,31 @@
     </row>
     <row r="303" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="22"/>
-      <c r="B303" s="40"/>
-      <c r="C303" s="40"/>
-      <c r="D303" s="40"/>
-      <c r="E303" s="40"/>
-      <c r="F303" s="40"/>
+      <c r="B303" s="50"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="50"/>
+      <c r="E303" s="50"/>
+      <c r="F303" s="50"/>
       <c r="G303" s="21"/>
       <c r="H303" s="21"/>
     </row>
     <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="22"/>
-      <c r="B304" s="40"/>
-      <c r="C304" s="40"/>
-      <c r="D304" s="40"/>
-      <c r="E304" s="40"/>
-      <c r="F304" s="40"/>
+      <c r="B304" s="50"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="50"/>
+      <c r="E304" s="50"/>
+      <c r="F304" s="50"/>
       <c r="G304" s="21"/>
       <c r="H304" s="21"/>
     </row>
     <row r="305" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
-      <c r="B305" s="40"/>
-      <c r="C305" s="40"/>
-      <c r="D305" s="40"/>
-      <c r="E305" s="40"/>
-      <c r="F305" s="40"/>
+      <c r="B305" s="50"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="50"/>
+      <c r="E305" s="50"/>
+      <c r="F305" s="50"/>
       <c r="G305" s="21"/>
       <c r="H305" s="21"/>
     </row>
@@ -4473,31 +5045,31 @@
     </row>
     <row r="307" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
-      <c r="B307" s="40"/>
-      <c r="C307" s="40"/>
-      <c r="D307" s="40"/>
-      <c r="E307" s="40"/>
-      <c r="F307" s="40"/>
+      <c r="B307" s="50"/>
+      <c r="C307" s="50"/>
+      <c r="D307" s="50"/>
+      <c r="E307" s="50"/>
+      <c r="F307" s="50"/>
       <c r="G307" s="21"/>
       <c r="H307" s="21"/>
     </row>
     <row r="308" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17"/>
-      <c r="B308" s="40"/>
-      <c r="C308" s="40"/>
-      <c r="D308" s="40"/>
-      <c r="E308" s="40"/>
-      <c r="F308" s="40"/>
+      <c r="B308" s="50"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="50"/>
+      <c r="E308" s="50"/>
+      <c r="F308" s="50"/>
       <c r="G308" s="21"/>
       <c r="H308" s="21"/>
     </row>
     <row r="309" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
-      <c r="B309" s="40"/>
-      <c r="C309" s="40"/>
-      <c r="D309" s="40"/>
-      <c r="E309" s="40"/>
-      <c r="F309" s="40"/>
+      <c r="B309" s="50"/>
+      <c r="C309" s="50"/>
+      <c r="D309" s="50"/>
+      <c r="E309" s="50"/>
+      <c r="F309" s="50"/>
       <c r="G309" s="21"/>
       <c r="H309" s="21"/>
     </row>
@@ -4513,11 +5085,11 @@
     </row>
     <row r="311" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="22"/>
-      <c r="B311" s="39"/>
-      <c r="C311" s="39"/>
-      <c r="D311" s="39"/>
-      <c r="E311" s="39"/>
-      <c r="F311" s="39"/>
+      <c r="B311" s="51"/>
+      <c r="C311" s="51"/>
+      <c r="D311" s="51"/>
+      <c r="E311" s="51"/>
+      <c r="F311" s="51"/>
       <c r="G311" s="21"/>
       <c r="H311" s="21"/>
     </row>
@@ -4573,31 +5145,31 @@
     </row>
     <row r="317" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="22"/>
-      <c r="B317" s="40"/>
-      <c r="C317" s="40"/>
-      <c r="D317" s="40"/>
-      <c r="E317" s="40"/>
-      <c r="F317" s="40"/>
+      <c r="B317" s="50"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="50"/>
+      <c r="E317" s="50"/>
+      <c r="F317" s="50"/>
       <c r="G317" s="21"/>
       <c r="H317" s="21"/>
     </row>
     <row r="318" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="22"/>
-      <c r="B318" s="40"/>
-      <c r="C318" s="40"/>
-      <c r="D318" s="40"/>
-      <c r="E318" s="40"/>
-      <c r="F318" s="40"/>
+      <c r="B318" s="50"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="50"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="50"/>
       <c r="G318" s="21"/>
       <c r="H318" s="21"/>
     </row>
     <row r="319" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
-      <c r="B319" s="40"/>
-      <c r="C319" s="40"/>
-      <c r="D319" s="40"/>
-      <c r="E319" s="40"/>
-      <c r="F319" s="40"/>
+      <c r="B319" s="50"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="50"/>
+      <c r="E319" s="50"/>
+      <c r="F319" s="50"/>
       <c r="G319" s="21"/>
       <c r="H319" s="21"/>
     </row>
@@ -4613,31 +5185,31 @@
     </row>
     <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
-      <c r="B321" s="40"/>
-      <c r="C321" s="40"/>
-      <c r="D321" s="40"/>
-      <c r="E321" s="40"/>
-      <c r="F321" s="40"/>
+      <c r="B321" s="50"/>
+      <c r="C321" s="50"/>
+      <c r="D321" s="50"/>
+      <c r="E321" s="50"/>
+      <c r="F321" s="50"/>
       <c r="G321" s="21"/>
       <c r="H321" s="21"/>
     </row>
     <row r="322" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
-      <c r="B322" s="40"/>
-      <c r="C322" s="40"/>
-      <c r="D322" s="40"/>
-      <c r="E322" s="40"/>
-      <c r="F322" s="40"/>
+      <c r="B322" s="50"/>
+      <c r="C322" s="50"/>
+      <c r="D322" s="50"/>
+      <c r="E322" s="50"/>
+      <c r="F322" s="50"/>
       <c r="G322" s="21"/>
       <c r="H322" s="21"/>
     </row>
     <row r="323" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
-      <c r="B323" s="40"/>
-      <c r="C323" s="40"/>
-      <c r="D323" s="40"/>
-      <c r="E323" s="40"/>
-      <c r="F323" s="40"/>
+      <c r="B323" s="50"/>
+      <c r="C323" s="50"/>
+      <c r="D323" s="50"/>
+      <c r="E323" s="50"/>
+      <c r="F323" s="50"/>
       <c r="G323" s="21"/>
       <c r="H323" s="21"/>
     </row>
@@ -4653,11 +5225,11 @@
     </row>
     <row r="325" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="22"/>
-      <c r="B325" s="39"/>
-      <c r="C325" s="39"/>
-      <c r="D325" s="39"/>
-      <c r="E325" s="39"/>
-      <c r="F325" s="39"/>
+      <c r="B325" s="51"/>
+      <c r="C325" s="51"/>
+      <c r="D325" s="51"/>
+      <c r="E325" s="51"/>
+      <c r="F325" s="51"/>
       <c r="G325" s="21"/>
       <c r="H325" s="21"/>
     </row>
@@ -4703,41 +5275,41 @@
     </row>
     <row r="330" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="22"/>
-      <c r="B330" s="40"/>
-      <c r="C330" s="40"/>
-      <c r="D330" s="40"/>
-      <c r="E330" s="40"/>
-      <c r="F330" s="40"/>
+      <c r="B330" s="50"/>
+      <c r="C330" s="50"/>
+      <c r="D330" s="50"/>
+      <c r="E330" s="50"/>
+      <c r="F330" s="50"/>
       <c r="G330" s="21"/>
       <c r="H330" s="21"/>
     </row>
     <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="22"/>
-      <c r="B331" s="40"/>
-      <c r="C331" s="40"/>
-      <c r="D331" s="40"/>
-      <c r="E331" s="40"/>
-      <c r="F331" s="40"/>
+      <c r="B331" s="50"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="50"/>
+      <c r="E331" s="50"/>
+      <c r="F331" s="50"/>
       <c r="G331" s="21"/>
       <c r="H331" s="21"/>
     </row>
     <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="22"/>
-      <c r="B332" s="40"/>
-      <c r="C332" s="40"/>
-      <c r="D332" s="40"/>
-      <c r="E332" s="40"/>
-      <c r="F332" s="40"/>
+      <c r="B332" s="50"/>
+      <c r="C332" s="50"/>
+      <c r="D332" s="50"/>
+      <c r="E332" s="50"/>
+      <c r="F332" s="50"/>
       <c r="G332" s="21"/>
       <c r="H332" s="21"/>
     </row>
     <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17"/>
-      <c r="B333" s="40"/>
-      <c r="C333" s="40"/>
-      <c r="D333" s="40"/>
-      <c r="E333" s="40"/>
-      <c r="F333" s="40"/>
+      <c r="B333" s="50"/>
+      <c r="C333" s="50"/>
+      <c r="D333" s="50"/>
+      <c r="E333" s="50"/>
+      <c r="F333" s="50"/>
       <c r="G333" s="21"/>
       <c r="H333" s="21"/>
     </row>
@@ -4763,31 +5335,31 @@
     </row>
     <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="17"/>
-      <c r="B336" s="40"/>
-      <c r="C336" s="40"/>
-      <c r="D336" s="40"/>
-      <c r="E336" s="40"/>
-      <c r="F336" s="40"/>
+      <c r="B336" s="50"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="50"/>
+      <c r="E336" s="50"/>
+      <c r="F336" s="50"/>
       <c r="G336" s="21"/>
       <c r="H336" s="21"/>
     </row>
     <row r="337" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
-      <c r="B337" s="40"/>
-      <c r="C337" s="40"/>
-      <c r="D337" s="40"/>
-      <c r="E337" s="40"/>
-      <c r="F337" s="40"/>
+      <c r="B337" s="50"/>
+      <c r="C337" s="50"/>
+      <c r="D337" s="50"/>
+      <c r="E337" s="50"/>
+      <c r="F337" s="50"/>
       <c r="G337" s="21"/>
       <c r="H337" s="21"/>
     </row>
     <row r="338" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
-      <c r="B338" s="40"/>
-      <c r="C338" s="40"/>
-      <c r="D338" s="40"/>
-      <c r="E338" s="40"/>
-      <c r="F338" s="40"/>
+      <c r="B338" s="50"/>
+      <c r="C338" s="50"/>
+      <c r="D338" s="50"/>
+      <c r="E338" s="50"/>
+      <c r="F338" s="50"/>
       <c r="G338" s="21"/>
       <c r="H338" s="21"/>
     </row>
@@ -4803,11 +5375,11 @@
     </row>
     <row r="340" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="22"/>
-      <c r="B340" s="39"/>
-      <c r="C340" s="39"/>
-      <c r="D340" s="39"/>
-      <c r="E340" s="39"/>
-      <c r="F340" s="39"/>
+      <c r="B340" s="51"/>
+      <c r="C340" s="51"/>
+      <c r="D340" s="51"/>
+      <c r="E340" s="51"/>
+      <c r="F340" s="51"/>
       <c r="G340" s="21"/>
       <c r="H340" s="21"/>
     </row>
@@ -4853,41 +5425,41 @@
     </row>
     <row r="345" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="22"/>
-      <c r="B345" s="40"/>
-      <c r="C345" s="40"/>
-      <c r="D345" s="40"/>
-      <c r="E345" s="40"/>
-      <c r="F345" s="40"/>
+      <c r="B345" s="50"/>
+      <c r="C345" s="50"/>
+      <c r="D345" s="50"/>
+      <c r="E345" s="50"/>
+      <c r="F345" s="50"/>
       <c r="G345" s="21"/>
       <c r="H345" s="21"/>
     </row>
     <row r="346" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="22"/>
-      <c r="B346" s="40"/>
-      <c r="C346" s="40"/>
-      <c r="D346" s="40"/>
-      <c r="E346" s="40"/>
-      <c r="F346" s="40"/>
+      <c r="B346" s="50"/>
+      <c r="C346" s="50"/>
+      <c r="D346" s="50"/>
+      <c r="E346" s="50"/>
+      <c r="F346" s="50"/>
       <c r="G346" s="21"/>
       <c r="H346" s="21"/>
     </row>
     <row r="347" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="22"/>
-      <c r="B347" s="40"/>
-      <c r="C347" s="40"/>
-      <c r="D347" s="40"/>
-      <c r="E347" s="40"/>
-      <c r="F347" s="40"/>
+      <c r="B347" s="50"/>
+      <c r="C347" s="50"/>
+      <c r="D347" s="50"/>
+      <c r="E347" s="50"/>
+      <c r="F347" s="50"/>
       <c r="G347" s="21"/>
       <c r="H347" s="21"/>
     </row>
     <row r="348" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="17"/>
-      <c r="B348" s="40"/>
-      <c r="C348" s="40"/>
-      <c r="D348" s="40"/>
-      <c r="E348" s="40"/>
-      <c r="F348" s="40"/>
+      <c r="B348" s="50"/>
+      <c r="C348" s="50"/>
+      <c r="D348" s="50"/>
+      <c r="E348" s="50"/>
+      <c r="F348" s="50"/>
       <c r="G348" s="21"/>
       <c r="H348" s="21"/>
     </row>
@@ -4903,41 +5475,41 @@
     </row>
     <row r="350" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="17"/>
-      <c r="B350" s="40"/>
-      <c r="C350" s="40"/>
-      <c r="D350" s="40"/>
-      <c r="E350" s="40"/>
-      <c r="F350" s="40"/>
+      <c r="B350" s="50"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="50"/>
+      <c r="E350" s="50"/>
+      <c r="F350" s="50"/>
       <c r="G350" s="21"/>
       <c r="H350" s="21"/>
     </row>
     <row r="351" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="17"/>
-      <c r="B351" s="40"/>
-      <c r="C351" s="40"/>
-      <c r="D351" s="40"/>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
+      <c r="B351" s="50"/>
+      <c r="C351" s="50"/>
+      <c r="D351" s="50"/>
+      <c r="E351" s="50"/>
+      <c r="F351" s="50"/>
       <c r="G351" s="21"/>
       <c r="H351" s="21"/>
     </row>
     <row r="352" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
-      <c r="B352" s="40"/>
-      <c r="C352" s="40"/>
-      <c r="D352" s="40"/>
-      <c r="E352" s="40"/>
-      <c r="F352" s="40"/>
+      <c r="B352" s="50"/>
+      <c r="C352" s="50"/>
+      <c r="D352" s="50"/>
+      <c r="E352" s="50"/>
+      <c r="F352" s="50"/>
       <c r="G352" s="21"/>
       <c r="H352" s="21"/>
     </row>
     <row r="353" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
-      <c r="B353" s="40"/>
-      <c r="C353" s="40"/>
-      <c r="D353" s="40"/>
-      <c r="E353" s="40"/>
-      <c r="F353" s="40"/>
+      <c r="B353" s="50"/>
+      <c r="C353" s="50"/>
+      <c r="D353" s="50"/>
+      <c r="E353" s="50"/>
+      <c r="F353" s="50"/>
       <c r="G353" s="21"/>
       <c r="H353" s="21"/>
     </row>
@@ -4953,11 +5525,11 @@
     </row>
     <row r="355" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="22"/>
-      <c r="B355" s="39"/>
-      <c r="C355" s="39"/>
-      <c r="D355" s="39"/>
-      <c r="E355" s="39"/>
-      <c r="F355" s="39"/>
+      <c r="B355" s="51"/>
+      <c r="C355" s="51"/>
+      <c r="D355" s="51"/>
+      <c r="E355" s="51"/>
+      <c r="F355" s="51"/>
       <c r="G355" s="21"/>
       <c r="H355" s="21"/>
     </row>
@@ -5003,9 +5575,9 @@
     </row>
     <row r="360" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="22"/>
-      <c r="B360" s="40"/>
-      <c r="C360" s="40"/>
-      <c r="D360" s="40"/>
+      <c r="B360" s="50"/>
+      <c r="C360" s="50"/>
+      <c r="D360" s="50"/>
       <c r="E360" s="20"/>
       <c r="F360" s="23"/>
       <c r="G360" s="21"/>
@@ -5013,9 +5585,9 @@
     </row>
     <row r="361" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="22"/>
-      <c r="B361" s="40"/>
-      <c r="C361" s="40"/>
-      <c r="D361" s="40"/>
+      <c r="B361" s="50"/>
+      <c r="C361" s="50"/>
+      <c r="D361" s="50"/>
       <c r="E361" s="20"/>
       <c r="F361" s="23"/>
       <c r="G361" s="21"/>
@@ -5023,9 +5595,9 @@
     </row>
     <row r="362" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="22"/>
-      <c r="B362" s="40"/>
-      <c r="C362" s="40"/>
-      <c r="D362" s="40"/>
+      <c r="B362" s="50"/>
+      <c r="C362" s="50"/>
+      <c r="D362" s="50"/>
       <c r="E362" s="20"/>
       <c r="F362" s="23"/>
       <c r="G362" s="21"/>
@@ -5033,9 +5605,9 @@
     </row>
     <row r="363" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="17"/>
-      <c r="B363" s="40"/>
-      <c r="C363" s="40"/>
-      <c r="D363" s="40"/>
+      <c r="B363" s="50"/>
+      <c r="C363" s="50"/>
+      <c r="D363" s="50"/>
       <c r="E363" s="20"/>
       <c r="F363" s="23"/>
       <c r="G363" s="21"/>
@@ -5053,9 +5625,9 @@
     </row>
     <row r="365" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="17"/>
-      <c r="B365" s="40"/>
-      <c r="C365" s="40"/>
-      <c r="D365" s="40"/>
+      <c r="B365" s="50"/>
+      <c r="C365" s="50"/>
+      <c r="D365" s="50"/>
       <c r="E365" s="20"/>
       <c r="F365" s="23"/>
       <c r="G365" s="21"/>
@@ -5063,9 +5635,9 @@
     </row>
     <row r="366" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="17"/>
-      <c r="B366" s="40"/>
-      <c r="C366" s="40"/>
-      <c r="D366" s="40"/>
+      <c r="B366" s="50"/>
+      <c r="C366" s="50"/>
+      <c r="D366" s="50"/>
       <c r="E366" s="20"/>
       <c r="F366" s="23"/>
       <c r="G366" s="21"/>
@@ -5073,9 +5645,9 @@
     </row>
     <row r="367" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
-      <c r="B367" s="40"/>
-      <c r="C367" s="40"/>
-      <c r="D367" s="40"/>
+      <c r="B367" s="50"/>
+      <c r="C367" s="50"/>
+      <c r="D367" s="50"/>
       <c r="E367" s="20"/>
       <c r="F367" s="23"/>
       <c r="G367" s="21"/>
@@ -5083,9 +5655,9 @@
     </row>
     <row r="368" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
-      <c r="B368" s="40"/>
-      <c r="C368" s="40"/>
-      <c r="D368" s="40"/>
+      <c r="B368" s="50"/>
+      <c r="C368" s="50"/>
+      <c r="D368" s="50"/>
       <c r="E368" s="20"/>
       <c r="F368" s="23"/>
       <c r="G368" s="21"/>
@@ -5103,9 +5675,9 @@
     </row>
     <row r="370" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="22"/>
-      <c r="B370" s="39"/>
-      <c r="C370" s="39"/>
-      <c r="D370" s="39"/>
+      <c r="B370" s="51"/>
+      <c r="C370" s="51"/>
+      <c r="D370" s="51"/>
       <c r="E370" s="27"/>
       <c r="F370" s="24"/>
       <c r="G370" s="21"/>
@@ -5233,11 +5805,11 @@
     </row>
     <row r="383" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="22"/>
-      <c r="B383" s="39"/>
-      <c r="C383" s="39"/>
-      <c r="D383" s="39"/>
-      <c r="E383" s="39"/>
-      <c r="F383" s="39"/>
+      <c r="B383" s="51"/>
+      <c r="C383" s="51"/>
+      <c r="D383" s="51"/>
+      <c r="E383" s="51"/>
+      <c r="F383" s="51"/>
       <c r="G383" s="21"/>
       <c r="H383" s="21"/>
     </row>
@@ -5363,11 +5935,11 @@
     </row>
     <row r="396" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="22"/>
-      <c r="B396" s="39"/>
-      <c r="C396" s="39"/>
-      <c r="D396" s="39"/>
-      <c r="E396" s="39"/>
-      <c r="F396" s="39"/>
+      <c r="B396" s="51"/>
+      <c r="C396" s="51"/>
+      <c r="D396" s="51"/>
+      <c r="E396" s="51"/>
+      <c r="F396" s="51"/>
       <c r="G396" s="21"/>
       <c r="H396" s="21"/>
     </row>
@@ -5493,11 +6065,11 @@
     </row>
     <row r="409" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="22"/>
-      <c r="B409" s="39"/>
-      <c r="C409" s="39"/>
-      <c r="D409" s="39"/>
-      <c r="E409" s="39"/>
-      <c r="F409" s="39"/>
+      <c r="B409" s="51"/>
+      <c r="C409" s="51"/>
+      <c r="D409" s="51"/>
+      <c r="E409" s="51"/>
+      <c r="F409" s="51"/>
       <c r="G409" s="21"/>
       <c r="H409" s="21"/>
     </row>
@@ -5623,11 +6195,11 @@
     </row>
     <row r="422" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="22"/>
-      <c r="B422" s="39"/>
-      <c r="C422" s="39"/>
-      <c r="D422" s="39"/>
-      <c r="E422" s="39"/>
-      <c r="F422" s="39"/>
+      <c r="B422" s="51"/>
+      <c r="C422" s="51"/>
+      <c r="D422" s="51"/>
+      <c r="E422" s="51"/>
+      <c r="F422" s="51"/>
       <c r="G422" s="21"/>
       <c r="H422" s="21"/>
     </row>
@@ -5753,11 +6325,11 @@
     </row>
     <row r="435" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="22"/>
-      <c r="B435" s="39"/>
-      <c r="C435" s="39"/>
-      <c r="D435" s="39"/>
-      <c r="E435" s="39"/>
-      <c r="F435" s="39"/>
+      <c r="B435" s="51"/>
+      <c r="C435" s="51"/>
+      <c r="D435" s="51"/>
+      <c r="E435" s="51"/>
+      <c r="F435" s="51"/>
       <c r="G435" s="21"/>
       <c r="H435" s="21"/>
     </row>
@@ -5883,11 +6455,11 @@
     </row>
     <row r="448" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="22"/>
-      <c r="B448" s="39"/>
-      <c r="C448" s="39"/>
-      <c r="D448" s="39"/>
-      <c r="E448" s="39"/>
-      <c r="F448" s="39"/>
+      <c r="B448" s="51"/>
+      <c r="C448" s="51"/>
+      <c r="D448" s="51"/>
+      <c r="E448" s="51"/>
+      <c r="F448" s="51"/>
       <c r="G448" s="21"/>
       <c r="H448" s="21"/>
     </row>
@@ -6013,11 +6585,11 @@
     </row>
     <row r="461" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="22"/>
-      <c r="B461" s="39"/>
-      <c r="C461" s="39"/>
-      <c r="D461" s="39"/>
-      <c r="E461" s="39"/>
-      <c r="F461" s="39"/>
+      <c r="B461" s="51"/>
+      <c r="C461" s="51"/>
+      <c r="D461" s="51"/>
+      <c r="E461" s="51"/>
+      <c r="F461" s="51"/>
       <c r="G461" s="21"/>
       <c r="H461" s="21"/>
     </row>
@@ -6143,11 +6715,11 @@
     </row>
     <row r="474" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="22"/>
-      <c r="B474" s="39"/>
-      <c r="C474" s="39"/>
-      <c r="D474" s="39"/>
-      <c r="E474" s="39"/>
-      <c r="F474" s="39"/>
+      <c r="B474" s="51"/>
+      <c r="C474" s="51"/>
+      <c r="D474" s="51"/>
+      <c r="E474" s="51"/>
+      <c r="F474" s="51"/>
       <c r="G474" s="21"/>
       <c r="H474" s="21"/>
     </row>
@@ -6274,10 +6846,10 @@
     <row r="487" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="22"/>
       <c r="B487" s="27"/>
-      <c r="C487" s="39"/>
-      <c r="D487" s="39"/>
-      <c r="E487" s="39"/>
-      <c r="F487" s="39"/>
+      <c r="C487" s="51"/>
+      <c r="D487" s="51"/>
+      <c r="E487" s="51"/>
+      <c r="F487" s="51"/>
       <c r="G487" s="21"/>
       <c r="H487" s="21"/>
     </row>
@@ -6403,11 +6975,11 @@
     </row>
     <row r="500" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="22"/>
-      <c r="B500" s="39"/>
-      <c r="C500" s="39"/>
-      <c r="D500" s="39"/>
-      <c r="E500" s="39"/>
-      <c r="F500" s="39"/>
+      <c r="B500" s="51"/>
+      <c r="C500" s="51"/>
+      <c r="D500" s="51"/>
+      <c r="E500" s="51"/>
+      <c r="F500" s="51"/>
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
@@ -6533,11 +7105,11 @@
     </row>
     <row r="513" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="22"/>
-      <c r="B513" s="39"/>
-      <c r="C513" s="39"/>
-      <c r="D513" s="39"/>
-      <c r="E513" s="39"/>
-      <c r="F513" s="39"/>
+      <c r="B513" s="51"/>
+      <c r="C513" s="51"/>
+      <c r="D513" s="51"/>
+      <c r="E513" s="51"/>
+      <c r="F513" s="51"/>
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
@@ -6663,11 +7235,11 @@
     </row>
     <row r="526" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="22"/>
-      <c r="B526" s="39"/>
-      <c r="C526" s="39"/>
-      <c r="D526" s="39"/>
-      <c r="E526" s="39"/>
-      <c r="F526" s="39"/>
+      <c r="B526" s="51"/>
+      <c r="C526" s="51"/>
+      <c r="D526" s="51"/>
+      <c r="E526" s="51"/>
+      <c r="F526" s="51"/>
       <c r="G526" s="21"/>
       <c r="H526" s="21"/>
     </row>
@@ -6793,11 +7365,11 @@
     </row>
     <row r="539" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="22"/>
-      <c r="B539" s="39"/>
-      <c r="C539" s="39"/>
-      <c r="D539" s="39"/>
-      <c r="E539" s="39"/>
-      <c r="F539" s="39"/>
+      <c r="B539" s="51"/>
+      <c r="C539" s="51"/>
+      <c r="D539" s="51"/>
+      <c r="E539" s="51"/>
+      <c r="F539" s="51"/>
       <c r="G539" s="21"/>
       <c r="H539" s="21"/>
     </row>
@@ -6923,11 +7495,11 @@
     </row>
     <row r="552" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="22"/>
-      <c r="B552" s="39"/>
-      <c r="C552" s="39"/>
-      <c r="D552" s="39"/>
-      <c r="E552" s="39"/>
-      <c r="F552" s="39"/>
+      <c r="B552" s="51"/>
+      <c r="C552" s="51"/>
+      <c r="D552" s="51"/>
+      <c r="E552" s="51"/>
+      <c r="F552" s="51"/>
       <c r="G552" s="21"/>
       <c r="H552" s="21"/>
     </row>
@@ -7053,11 +7625,11 @@
     </row>
     <row r="565" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="22"/>
-      <c r="B565" s="39"/>
-      <c r="C565" s="39"/>
-      <c r="D565" s="39"/>
-      <c r="E565" s="39"/>
-      <c r="F565" s="39"/>
+      <c r="B565" s="51"/>
+      <c r="C565" s="51"/>
+      <c r="D565" s="51"/>
+      <c r="E565" s="51"/>
+      <c r="F565" s="51"/>
       <c r="G565" s="21"/>
       <c r="H565" s="21"/>
     </row>
@@ -7183,11 +7755,11 @@
     </row>
     <row r="578" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="22"/>
-      <c r="B578" s="39"/>
-      <c r="C578" s="39"/>
-      <c r="D578" s="39"/>
-      <c r="E578" s="39"/>
-      <c r="F578" s="39"/>
+      <c r="B578" s="51"/>
+      <c r="C578" s="51"/>
+      <c r="D578" s="51"/>
+      <c r="E578" s="51"/>
+      <c r="F578" s="51"/>
       <c r="G578" s="21"/>
       <c r="H578" s="21"/>
     </row>
@@ -7313,11 +7885,11 @@
     </row>
     <row r="591" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="22"/>
-      <c r="B591" s="39"/>
-      <c r="C591" s="39"/>
-      <c r="D591" s="39"/>
-      <c r="E591" s="39"/>
-      <c r="F591" s="39"/>
+      <c r="B591" s="51"/>
+      <c r="C591" s="51"/>
+      <c r="D591" s="51"/>
+      <c r="E591" s="51"/>
+      <c r="F591" s="51"/>
       <c r="G591" s="21"/>
       <c r="H591" s="21"/>
     </row>
@@ -7443,11 +8015,11 @@
     </row>
     <row r="604" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="22"/>
-      <c r="B604" s="39"/>
-      <c r="C604" s="39"/>
-      <c r="D604" s="39"/>
-      <c r="E604" s="39"/>
-      <c r="F604" s="39"/>
+      <c r="B604" s="51"/>
+      <c r="C604" s="51"/>
+      <c r="D604" s="51"/>
+      <c r="E604" s="51"/>
+      <c r="F604" s="51"/>
       <c r="G604" s="21"/>
       <c r="H604" s="21"/>
     </row>
@@ -7573,11 +8145,11 @@
     </row>
     <row r="617" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="22"/>
-      <c r="B617" s="39"/>
-      <c r="C617" s="39"/>
-      <c r="D617" s="39"/>
-      <c r="E617" s="39"/>
-      <c r="F617" s="39"/>
+      <c r="B617" s="51"/>
+      <c r="C617" s="51"/>
+      <c r="D617" s="51"/>
+      <c r="E617" s="51"/>
+      <c r="F617" s="51"/>
       <c r="G617" s="21"/>
       <c r="H617" s="21"/>
     </row>
@@ -7703,11 +8275,11 @@
     </row>
     <row r="630" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="22"/>
-      <c r="B630" s="39"/>
-      <c r="C630" s="39"/>
-      <c r="D630" s="39"/>
-      <c r="E630" s="39"/>
-      <c r="F630" s="39"/>
+      <c r="B630" s="51"/>
+      <c r="C630" s="51"/>
+      <c r="D630" s="51"/>
+      <c r="E630" s="51"/>
+      <c r="F630" s="51"/>
       <c r="G630" s="21"/>
       <c r="H630" s="21"/>
     </row>
@@ -7833,9 +8405,9 @@
     </row>
     <row r="643" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="22"/>
-      <c r="B643" s="39"/>
-      <c r="C643" s="39"/>
-      <c r="D643" s="39"/>
+      <c r="B643" s="51"/>
+      <c r="C643" s="51"/>
+      <c r="D643" s="51"/>
       <c r="E643" s="27"/>
       <c r="F643" s="27"/>
       <c r="G643" s="21"/>
@@ -7963,11 +8535,11 @@
     </row>
     <row r="656" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="22"/>
-      <c r="B656" s="39"/>
-      <c r="C656" s="39"/>
-      <c r="D656" s="39"/>
-      <c r="E656" s="39"/>
-      <c r="F656" s="39"/>
+      <c r="B656" s="51"/>
+      <c r="C656" s="51"/>
+      <c r="D656" s="51"/>
+      <c r="E656" s="51"/>
+      <c r="F656" s="51"/>
       <c r="G656" s="21"/>
       <c r="H656" s="21"/>
     </row>
@@ -8093,11 +8665,11 @@
     </row>
     <row r="669" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="22"/>
-      <c r="B669" s="39"/>
-      <c r="C669" s="39"/>
-      <c r="D669" s="39"/>
-      <c r="E669" s="39"/>
-      <c r="F669" s="39"/>
+      <c r="B669" s="51"/>
+      <c r="C669" s="51"/>
+      <c r="D669" s="51"/>
+      <c r="E669" s="51"/>
+      <c r="F669" s="51"/>
       <c r="G669" s="21"/>
       <c r="H669" s="21"/>
     </row>
@@ -8223,11 +8795,11 @@
     </row>
     <row r="682" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="22"/>
-      <c r="B682" s="39"/>
-      <c r="C682" s="39"/>
-      <c r="D682" s="39"/>
-      <c r="E682" s="39"/>
-      <c r="F682" s="39"/>
+      <c r="B682" s="51"/>
+      <c r="C682" s="51"/>
+      <c r="D682" s="51"/>
+      <c r="E682" s="51"/>
+      <c r="F682" s="51"/>
       <c r="G682" s="21"/>
       <c r="H682" s="21"/>
     </row>
@@ -8356,8 +8928,8 @@
       <c r="B695" s="24"/>
       <c r="C695" s="27"/>
       <c r="D695" s="27"/>
-      <c r="E695" s="39"/>
-      <c r="F695" s="39"/>
+      <c r="E695" s="51"/>
+      <c r="F695" s="51"/>
       <c r="G695" s="21"/>
       <c r="H695" s="21"/>
     </row>
@@ -8483,11 +9055,11 @@
     </row>
     <row r="708" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="22"/>
-      <c r="B708" s="39"/>
-      <c r="C708" s="39"/>
+      <c r="B708" s="51"/>
+      <c r="C708" s="51"/>
       <c r="D708" s="27"/>
-      <c r="E708" s="39"/>
-      <c r="F708" s="39"/>
+      <c r="E708" s="51"/>
+      <c r="F708" s="51"/>
       <c r="G708" s="21"/>
       <c r="H708" s="21"/>
     </row>
@@ -8507,116 +9079,77 @@
     <row r="756" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="205">
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="C297:F297"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C295:F295"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B54:F54"/>
+  <mergeCells count="165">
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="C487:F487"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="E708:F708"/>
+    <mergeCell ref="E695:F695"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B643:D643"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B241:F241"/>
     <mergeCell ref="B422:F422"/>
     <mergeCell ref="B435:F435"/>
     <mergeCell ref="B309:F309"/>
@@ -8641,78 +9174,77 @@
     <mergeCell ref="B363:D363"/>
     <mergeCell ref="B360:D360"/>
     <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="E708:F708"/>
-    <mergeCell ref="E695:F695"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B643:D643"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="C487:F487"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="C297:F297"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C295:F295"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B137:F137"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -8722,18 +9254,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8908,18 +9440,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/templateSchedule.xlsx
+++ b/templateSchedule.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hoopes\Documents\Local Backups\ScheduleTrak\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41271128-2318-4B45-86E3-F5BFC5858867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F9739-F5A7-439F-8C58-A63CA7F1BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,17 +626,17 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,14 +1131,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3165,11 +3160,11 @@
     </row>
     <row r="119" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
       <c r="G119" s="21"/>
       <c r="H119" s="21"/>
     </row>
@@ -3215,11 +3210,11 @@
     </row>
     <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
     </row>
@@ -3235,21 +3230,21 @@
     </row>
     <row r="126" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
     </row>
     <row r="127" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
     </row>
@@ -3275,11 +3270,11 @@
     </row>
     <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="51"/>
       <c r="G130" s="21"/>
       <c r="H130" s="21"/>
     </row>
@@ -3295,11 +3290,11 @@
     </row>
     <row r="132" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
     </row>
@@ -3345,11 +3340,11 @@
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
     </row>
@@ -3365,21 +3360,21 @@
     </row>
     <row r="139" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
       <c r="G139" s="21"/>
       <c r="H139" s="21"/>
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
       <c r="G140" s="21"/>
       <c r="H140" s="21"/>
     </row>
@@ -3395,51 +3390,51 @@
     </row>
     <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
     </row>
     <row r="144" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="51"/>
       <c r="G146" s="21"/>
       <c r="H146" s="21"/>
     </row>
@@ -3455,11 +3450,11 @@
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
     </row>
@@ -3505,10 +3500,10 @@
     </row>
     <row r="153" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="50"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -3535,10 +3530,10 @@
     </row>
     <row r="156" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="51"/>
+      <c r="D156" s="51"/>
+      <c r="E156" s="51"/>
       <c r="F156" s="20"/>
       <c r="G156" s="21"/>
       <c r="H156" s="21"/>
@@ -3555,60 +3550,60 @@
     </row>
     <row r="158" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="51"/>
+      <c r="D158" s="51"/>
+      <c r="E158" s="51"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
     </row>
     <row r="159" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="51"/>
+      <c r="E159" s="51"/>
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
     </row>
     <row r="160" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="51"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="50"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
       <c r="F161" s="20"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
-      <c r="E162" s="50"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="50"/>
-      <c r="D163" s="50"/>
-      <c r="E163" s="50"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="51"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -3625,10 +3620,10 @@
     </row>
     <row r="165" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="51"/>
-      <c r="D165" s="51"/>
-      <c r="E165" s="51"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
       <c r="F165" s="27"/>
       <c r="G165" s="21"/>
       <c r="H165" s="21"/>
@@ -3675,21 +3670,21 @@
     </row>
     <row r="170" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="51"/>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="51"/>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
       <c r="G171" s="21"/>
       <c r="H171" s="21"/>
     </row>
@@ -3705,11 +3700,11 @@
     </row>
     <row r="173" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
+      <c r="F173" s="51"/>
       <c r="G173" s="21"/>
       <c r="H173" s="21"/>
     </row>
@@ -3725,61 +3720,61 @@
     </row>
     <row r="175" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="50"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="50"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="51"/>
+      <c r="E175" s="51"/>
+      <c r="F175" s="51"/>
       <c r="G175" s="21"/>
       <c r="H175" s="21"/>
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
-      <c r="B176" s="50"/>
-      <c r="C176" s="50"/>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="50"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="50"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
       <c r="G178" s="21"/>
       <c r="H178" s="21"/>
     </row>
     <row r="179" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51"/>
       <c r="G179" s="21"/>
       <c r="H179" s="21"/>
     </row>
     <row r="180" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="51"/>
       <c r="G180" s="21"/>
       <c r="H180" s="21"/>
     </row>
@@ -3795,11 +3790,11 @@
     </row>
     <row r="182" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="51"/>
-      <c r="F182" s="51"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
       <c r="G182" s="21"/>
       <c r="H182" s="21"/>
     </row>
@@ -3845,11 +3840,11 @@
     </row>
     <row r="187" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="22"/>
-      <c r="B187" s="50"/>
-      <c r="C187" s="50"/>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
+      <c r="E187" s="51"/>
+      <c r="F187" s="51"/>
       <c r="G187" s="21"/>
       <c r="H187" s="21"/>
     </row>
@@ -3865,21 +3860,21 @@
     </row>
     <row r="189" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="22"/>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
+      <c r="F189" s="51"/>
       <c r="G189" s="21"/>
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="50"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
+      <c r="F190" s="51"/>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
     </row>
@@ -3895,61 +3890,61 @@
     </row>
     <row r="192" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="50"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="51"/>
       <c r="G193" s="21"/>
       <c r="H193" s="21"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="51"/>
+      <c r="E194" s="51"/>
+      <c r="F194" s="51"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="51"/>
+      <c r="E195" s="51"/>
+      <c r="F195" s="51"/>
       <c r="G195" s="21"/>
       <c r="H195" s="21"/>
     </row>
     <row r="196" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
-      <c r="B196" s="50"/>
-      <c r="C196" s="50"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="50"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="51"/>
+      <c r="D196" s="51"/>
+      <c r="E196" s="51"/>
+      <c r="F196" s="51"/>
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
     </row>
     <row r="197" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="51"/>
+      <c r="D197" s="51"/>
+      <c r="E197" s="51"/>
+      <c r="F197" s="51"/>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
     </row>
@@ -3965,11 +3960,11 @@
     </row>
     <row r="199" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="22"/>
-      <c r="B199" s="51"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="51"/>
-      <c r="E199" s="51"/>
-      <c r="F199" s="51"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="50"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
     </row>
@@ -4015,11 +4010,11 @@
     </row>
     <row r="204" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="22"/>
-      <c r="B204" s="50"/>
-      <c r="C204" s="50"/>
-      <c r="D204" s="50"/>
-      <c r="E204" s="50"/>
-      <c r="F204" s="50"/>
+      <c r="B204" s="51"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="51"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="51"/>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
     </row>
@@ -4035,21 +4030,21 @@
     </row>
     <row r="206" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="22"/>
-      <c r="B206" s="50"/>
-      <c r="C206" s="50"/>
-      <c r="D206" s="50"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="50"/>
+      <c r="B206" s="51"/>
+      <c r="C206" s="51"/>
+      <c r="D206" s="51"/>
+      <c r="E206" s="51"/>
+      <c r="F206" s="51"/>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
     </row>
     <row r="207" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
-      <c r="B207" s="50"/>
-      <c r="C207" s="50"/>
-      <c r="D207" s="50"/>
-      <c r="E207" s="50"/>
-      <c r="F207" s="50"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="51"/>
+      <c r="E207" s="51"/>
+      <c r="F207" s="51"/>
       <c r="G207" s="21"/>
       <c r="H207" s="21"/>
     </row>
@@ -4065,31 +4060,31 @@
     </row>
     <row r="209" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="50"/>
-      <c r="D209" s="50"/>
-      <c r="E209" s="50"/>
-      <c r="F209" s="50"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="51"/>
+      <c r="F209" s="51"/>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
     </row>
     <row r="210" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
-      <c r="B210" s="50"/>
-      <c r="C210" s="50"/>
-      <c r="D210" s="50"/>
-      <c r="E210" s="50"/>
-      <c r="F210" s="50"/>
+      <c r="B210" s="51"/>
+      <c r="C210" s="51"/>
+      <c r="D210" s="51"/>
+      <c r="E210" s="51"/>
+      <c r="F210" s="51"/>
       <c r="G210" s="21"/>
       <c r="H210" s="21"/>
     </row>
     <row r="211" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="50"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="50"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="51"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="51"/>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
     </row>
@@ -4105,11 +4100,11 @@
     </row>
     <row r="213" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="22"/>
-      <c r="B213" s="51"/>
-      <c r="C213" s="51"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="51"/>
-      <c r="F213" s="51"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="50"/>
+      <c r="F213" s="50"/>
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
     </row>
@@ -4155,11 +4150,11 @@
     </row>
     <row r="218" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="22"/>
-      <c r="B218" s="50"/>
-      <c r="C218" s="50"/>
-      <c r="D218" s="50"/>
-      <c r="E218" s="50"/>
-      <c r="F218" s="50"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="51"/>
+      <c r="D218" s="51"/>
+      <c r="E218" s="51"/>
+      <c r="F218" s="51"/>
       <c r="G218" s="21"/>
       <c r="H218" s="21"/>
     </row>
@@ -4175,21 +4170,21 @@
     </row>
     <row r="220" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="22"/>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="50"/>
-      <c r="F220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
+      <c r="F220" s="51"/>
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
     </row>
     <row r="221" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
-      <c r="E221" s="50"/>
-      <c r="F221" s="50"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
+      <c r="F221" s="51"/>
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
     </row>
@@ -4205,31 +4200,31 @@
     </row>
     <row r="223" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="B223" s="50"/>
-      <c r="C223" s="50"/>
-      <c r="D223" s="50"/>
-      <c r="E223" s="50"/>
-      <c r="F223" s="50"/>
+      <c r="B223" s="51"/>
+      <c r="C223" s="51"/>
+      <c r="D223" s="51"/>
+      <c r="E223" s="51"/>
+      <c r="F223" s="51"/>
       <c r="G223" s="21"/>
       <c r="H223" s="21"/>
     </row>
     <row r="224" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="B224" s="50"/>
-      <c r="C224" s="50"/>
-      <c r="D224" s="50"/>
-      <c r="E224" s="50"/>
-      <c r="F224" s="50"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="51"/>
+      <c r="D224" s="51"/>
+      <c r="E224" s="51"/>
+      <c r="F224" s="51"/>
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
     </row>
     <row r="225" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="B225" s="50"/>
-      <c r="C225" s="50"/>
-      <c r="D225" s="50"/>
-      <c r="E225" s="50"/>
-      <c r="F225" s="50"/>
+      <c r="B225" s="51"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="51"/>
+      <c r="E225" s="51"/>
+      <c r="F225" s="51"/>
       <c r="G225" s="21"/>
       <c r="H225" s="21"/>
     </row>
@@ -4245,11 +4240,11 @@
     </row>
     <row r="227" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="22"/>
-      <c r="B227" s="51"/>
-      <c r="C227" s="51"/>
-      <c r="D227" s="51"/>
-      <c r="E227" s="51"/>
-      <c r="F227" s="51"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="50"/>
+      <c r="D227" s="50"/>
+      <c r="E227" s="50"/>
+      <c r="F227" s="50"/>
       <c r="G227" s="21"/>
       <c r="H227" s="21"/>
     </row>
@@ -4287,9 +4282,9 @@
       <c r="A231" s="17"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
-      <c r="D231" s="50"/>
-      <c r="E231" s="50"/>
-      <c r="F231" s="50"/>
+      <c r="D231" s="51"/>
+      <c r="E231" s="51"/>
+      <c r="F231" s="51"/>
       <c r="G231" s="21"/>
       <c r="H231" s="21"/>
     </row>
@@ -4315,21 +4310,21 @@
     </row>
     <row r="234" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="22"/>
-      <c r="B234" s="50"/>
-      <c r="C234" s="50"/>
-      <c r="D234" s="50"/>
-      <c r="E234" s="50"/>
-      <c r="F234" s="50"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="51"/>
+      <c r="D234" s="51"/>
+      <c r="E234" s="51"/>
+      <c r="F234" s="51"/>
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
     </row>
     <row r="235" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
-      <c r="E235" s="50"/>
-      <c r="F235" s="50"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="51"/>
+      <c r="D235" s="51"/>
+      <c r="E235" s="51"/>
+      <c r="F235" s="51"/>
       <c r="G235" s="21"/>
       <c r="H235" s="21"/>
     </row>
@@ -4345,31 +4340,31 @@
     </row>
     <row r="237" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="B237" s="50"/>
-      <c r="C237" s="50"/>
-      <c r="D237" s="50"/>
-      <c r="E237" s="50"/>
-      <c r="F237" s="50"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="51"/>
+      <c r="D237" s="51"/>
+      <c r="E237" s="51"/>
+      <c r="F237" s="51"/>
       <c r="G237" s="21"/>
       <c r="H237" s="21"/>
     </row>
     <row r="238" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="B238" s="50"/>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
-      <c r="E238" s="50"/>
-      <c r="F238" s="50"/>
+      <c r="B238" s="51"/>
+      <c r="C238" s="51"/>
+      <c r="D238" s="51"/>
+      <c r="E238" s="51"/>
+      <c r="F238" s="51"/>
       <c r="G238" s="21"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="B239" s="50"/>
-      <c r="C239" s="50"/>
-      <c r="D239" s="50"/>
-      <c r="E239" s="50"/>
-      <c r="F239" s="50"/>
+      <c r="B239" s="51"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="51"/>
+      <c r="E239" s="51"/>
+      <c r="F239" s="51"/>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
     </row>
@@ -4385,11 +4380,11 @@
     </row>
     <row r="241" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="22"/>
-      <c r="B241" s="51"/>
-      <c r="C241" s="51"/>
-      <c r="D241" s="51"/>
-      <c r="E241" s="51"/>
-      <c r="F241" s="51"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="50"/>
+      <c r="D241" s="50"/>
+      <c r="E241" s="50"/>
+      <c r="F241" s="50"/>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
     </row>
@@ -4427,19 +4422,19 @@
       <c r="A245" s="17"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
-      <c r="D245" s="50"/>
-      <c r="E245" s="50"/>
-      <c r="F245" s="50"/>
+      <c r="D245" s="51"/>
+      <c r="E245" s="51"/>
+      <c r="F245" s="51"/>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
     </row>
     <row r="246" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="22"/>
-      <c r="B246" s="50"/>
-      <c r="C246" s="50"/>
-      <c r="D246" s="50"/>
-      <c r="E246" s="50"/>
-      <c r="F246" s="50"/>
+      <c r="B246" s="51"/>
+      <c r="C246" s="51"/>
+      <c r="D246" s="51"/>
+      <c r="E246" s="51"/>
+      <c r="F246" s="51"/>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
     </row>
@@ -4455,21 +4450,21 @@
     </row>
     <row r="248" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="22"/>
-      <c r="B248" s="50"/>
-      <c r="C248" s="50"/>
-      <c r="D248" s="50"/>
-      <c r="E248" s="50"/>
-      <c r="F248" s="50"/>
+      <c r="B248" s="51"/>
+      <c r="C248" s="51"/>
+      <c r="D248" s="51"/>
+      <c r="E248" s="51"/>
+      <c r="F248" s="51"/>
       <c r="G248" s="21"/>
       <c r="H248" s="21"/>
     </row>
     <row r="249" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="B249" s="50"/>
-      <c r="C249" s="50"/>
-      <c r="D249" s="50"/>
-      <c r="E249" s="50"/>
-      <c r="F249" s="50"/>
+      <c r="B249" s="51"/>
+      <c r="C249" s="51"/>
+      <c r="D249" s="51"/>
+      <c r="E249" s="51"/>
+      <c r="F249" s="51"/>
       <c r="G249" s="21"/>
       <c r="H249" s="21"/>
     </row>
@@ -4485,31 +4480,31 @@
     </row>
     <row r="251" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="B251" s="50"/>
-      <c r="C251" s="50"/>
-      <c r="D251" s="50"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="50"/>
+      <c r="B251" s="51"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="51"/>
+      <c r="E251" s="51"/>
+      <c r="F251" s="51"/>
       <c r="G251" s="21"/>
       <c r="H251" s="21"/>
     </row>
     <row r="252" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="B252" s="50"/>
-      <c r="C252" s="50"/>
-      <c r="D252" s="50"/>
-      <c r="E252" s="50"/>
-      <c r="F252" s="50"/>
+      <c r="B252" s="51"/>
+      <c r="C252" s="51"/>
+      <c r="D252" s="51"/>
+      <c r="E252" s="51"/>
+      <c r="F252" s="51"/>
       <c r="G252" s="21"/>
       <c r="H252" s="21"/>
     </row>
     <row r="253" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="B253" s="50"/>
-      <c r="C253" s="50"/>
-      <c r="D253" s="50"/>
-      <c r="E253" s="50"/>
-      <c r="F253" s="50"/>
+      <c r="B253" s="51"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="51"/>
+      <c r="E253" s="51"/>
+      <c r="F253" s="51"/>
       <c r="G253" s="21"/>
       <c r="H253" s="21"/>
     </row>
@@ -4525,11 +4520,11 @@
     </row>
     <row r="255" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="22"/>
-      <c r="B255" s="51"/>
-      <c r="C255" s="51"/>
-      <c r="D255" s="51"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="51"/>
+      <c r="B255" s="50"/>
+      <c r="C255" s="50"/>
+      <c r="D255" s="50"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
       <c r="G255" s="21"/>
       <c r="H255" s="21"/>
     </row>
@@ -4575,41 +4570,41 @@
     </row>
     <row r="260" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="22"/>
-      <c r="B260" s="52"/>
-      <c r="C260" s="52"/>
-      <c r="D260" s="52"/>
-      <c r="E260" s="52"/>
-      <c r="F260" s="52"/>
+      <c r="B260" s="53"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="53"/>
+      <c r="E260" s="53"/>
+      <c r="F260" s="53"/>
       <c r="G260" s="21"/>
       <c r="H260" s="21"/>
     </row>
     <row r="261" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="22"/>
-      <c r="B261" s="50"/>
-      <c r="C261" s="50"/>
-      <c r="D261" s="50"/>
-      <c r="E261" s="50"/>
-      <c r="F261" s="50"/>
+      <c r="B261" s="51"/>
+      <c r="C261" s="51"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="51"/>
       <c r="G261" s="21"/>
       <c r="H261" s="21"/>
     </row>
     <row r="262" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="22"/>
-      <c r="B262" s="50"/>
-      <c r="C262" s="50"/>
-      <c r="D262" s="50"/>
-      <c r="E262" s="50"/>
-      <c r="F262" s="50"/>
+      <c r="B262" s="51"/>
+      <c r="C262" s="51"/>
+      <c r="D262" s="51"/>
+      <c r="E262" s="51"/>
+      <c r="F262" s="51"/>
       <c r="G262" s="21"/>
       <c r="H262" s="21"/>
     </row>
     <row r="263" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
-      <c r="B263" s="50"/>
-      <c r="C263" s="50"/>
-      <c r="D263" s="50"/>
-      <c r="E263" s="50"/>
-      <c r="F263" s="50"/>
+      <c r="B263" s="51"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="51"/>
+      <c r="E263" s="51"/>
+      <c r="F263" s="51"/>
       <c r="G263" s="21"/>
       <c r="H263" s="21"/>
     </row>
@@ -4625,31 +4620,31 @@
     </row>
     <row r="265" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
-      <c r="B265" s="50"/>
-      <c r="C265" s="50"/>
-      <c r="D265" s="50"/>
-      <c r="E265" s="50"/>
-      <c r="F265" s="50"/>
+      <c r="B265" s="51"/>
+      <c r="C265" s="51"/>
+      <c r="D265" s="51"/>
+      <c r="E265" s="51"/>
+      <c r="F265" s="51"/>
       <c r="G265" s="21"/>
       <c r="H265" s="21"/>
     </row>
     <row r="266" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
-      <c r="B266" s="50"/>
-      <c r="C266" s="50"/>
-      <c r="D266" s="50"/>
-      <c r="E266" s="50"/>
-      <c r="F266" s="50"/>
+      <c r="B266" s="51"/>
+      <c r="C266" s="51"/>
+      <c r="D266" s="51"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
       <c r="G266" s="21"/>
       <c r="H266" s="21"/>
     </row>
     <row r="267" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
-      <c r="B267" s="50"/>
-      <c r="C267" s="50"/>
-      <c r="D267" s="50"/>
-      <c r="E267" s="50"/>
-      <c r="F267" s="50"/>
+      <c r="B267" s="51"/>
+      <c r="C267" s="51"/>
+      <c r="D267" s="51"/>
+      <c r="E267" s="51"/>
+      <c r="F267" s="51"/>
       <c r="G267" s="21"/>
       <c r="H267" s="21"/>
     </row>
@@ -4665,11 +4660,11 @@
     </row>
     <row r="269" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="22"/>
-      <c r="B269" s="51"/>
-      <c r="C269" s="51"/>
-      <c r="D269" s="51"/>
-      <c r="E269" s="51"/>
-      <c r="F269" s="51"/>
+      <c r="B269" s="50"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="50"/>
+      <c r="E269" s="50"/>
+      <c r="F269" s="50"/>
       <c r="G269" s="21"/>
       <c r="H269" s="21"/>
     </row>
@@ -4725,31 +4720,31 @@
     </row>
     <row r="275" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="22"/>
-      <c r="B275" s="50"/>
-      <c r="C275" s="50"/>
-      <c r="D275" s="50"/>
-      <c r="E275" s="50"/>
-      <c r="F275" s="50"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="51"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="51"/>
       <c r="G275" s="21"/>
       <c r="H275" s="21"/>
     </row>
     <row r="276" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="22"/>
-      <c r="B276" s="50"/>
-      <c r="C276" s="50"/>
-      <c r="D276" s="50"/>
-      <c r="E276" s="50"/>
-      <c r="F276" s="50"/>
+      <c r="B276" s="51"/>
+      <c r="C276" s="51"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
       <c r="G276" s="21"/>
       <c r="H276" s="21"/>
     </row>
     <row r="277" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
-      <c r="B277" s="50"/>
-      <c r="C277" s="50"/>
-      <c r="D277" s="50"/>
-      <c r="E277" s="50"/>
-      <c r="F277" s="50"/>
+      <c r="B277" s="51"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
       <c r="G277" s="21"/>
       <c r="H277" s="21"/>
     </row>
@@ -4765,31 +4760,31 @@
     </row>
     <row r="279" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
-      <c r="B279" s="50"/>
-      <c r="C279" s="50"/>
-      <c r="D279" s="50"/>
-      <c r="E279" s="50"/>
-      <c r="F279" s="50"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="51"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="51"/>
+      <c r="F279" s="51"/>
       <c r="G279" s="21"/>
       <c r="H279" s="21"/>
     </row>
     <row r="280" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
-      <c r="B280" s="50"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
-      <c r="F280" s="50"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
+      <c r="F280" s="51"/>
       <c r="G280" s="21"/>
       <c r="H280" s="21"/>
     </row>
     <row r="281" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
-      <c r="B281" s="50"/>
-      <c r="C281" s="50"/>
-      <c r="D281" s="50"/>
-      <c r="E281" s="50"/>
-      <c r="F281" s="50"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
+      <c r="F281" s="51"/>
       <c r="G281" s="21"/>
       <c r="H281" s="21"/>
     </row>
@@ -4805,11 +4800,11 @@
     </row>
     <row r="283" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="22"/>
-      <c r="B283" s="51"/>
-      <c r="C283" s="51"/>
-      <c r="D283" s="51"/>
-      <c r="E283" s="51"/>
-      <c r="F283" s="51"/>
+      <c r="B283" s="50"/>
+      <c r="C283" s="50"/>
+      <c r="D283" s="50"/>
+      <c r="E283" s="50"/>
+      <c r="F283" s="50"/>
       <c r="G283" s="21"/>
       <c r="H283" s="21"/>
     </row>
@@ -4866,30 +4861,30 @@
     <row r="289" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="22"/>
       <c r="B289" s="20"/>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="50"/>
+      <c r="C289" s="51"/>
+      <c r="D289" s="51"/>
+      <c r="E289" s="51"/>
+      <c r="F289" s="51"/>
       <c r="G289" s="21"/>
       <c r="H289" s="21"/>
     </row>
     <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="22"/>
       <c r="B290" s="20"/>
-      <c r="C290" s="50"/>
-      <c r="D290" s="50"/>
-      <c r="E290" s="50"/>
-      <c r="F290" s="50"/>
+      <c r="C290" s="51"/>
+      <c r="D290" s="51"/>
+      <c r="E290" s="51"/>
+      <c r="F290" s="51"/>
       <c r="G290" s="21"/>
       <c r="H290" s="21"/>
     </row>
     <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="20"/>
-      <c r="C291" s="50"/>
-      <c r="D291" s="50"/>
-      <c r="E291" s="50"/>
-      <c r="F291" s="50"/>
+      <c r="C291" s="51"/>
+      <c r="D291" s="51"/>
+      <c r="E291" s="51"/>
+      <c r="F291" s="51"/>
       <c r="G291" s="21"/>
       <c r="H291" s="21"/>
     </row>
@@ -4906,30 +4901,30 @@
     <row r="293" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="20"/>
-      <c r="C293" s="50"/>
-      <c r="D293" s="50"/>
-      <c r="E293" s="50"/>
-      <c r="F293" s="50"/>
+      <c r="C293" s="51"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="51"/>
+      <c r="F293" s="51"/>
       <c r="G293" s="21"/>
       <c r="H293" s="21"/>
     </row>
     <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="17"/>
       <c r="B294" s="20"/>
-      <c r="C294" s="50"/>
-      <c r="D294" s="50"/>
-      <c r="E294" s="50"/>
-      <c r="F294" s="50"/>
+      <c r="C294" s="51"/>
+      <c r="D294" s="51"/>
+      <c r="E294" s="51"/>
+      <c r="F294" s="51"/>
       <c r="G294" s="21"/>
       <c r="H294" s="21"/>
     </row>
     <row r="295" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="20"/>
-      <c r="C295" s="50"/>
-      <c r="D295" s="50"/>
-      <c r="E295" s="50"/>
-      <c r="F295" s="50"/>
+      <c r="C295" s="51"/>
+      <c r="D295" s="51"/>
+      <c r="E295" s="51"/>
+      <c r="F295" s="51"/>
       <c r="G295" s="21"/>
       <c r="H295" s="21"/>
     </row>
@@ -4946,10 +4941,10 @@
     <row r="297" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="22"/>
       <c r="B297" s="1"/>
-      <c r="C297" s="51"/>
-      <c r="D297" s="51"/>
-      <c r="E297" s="51"/>
-      <c r="F297" s="51"/>
+      <c r="C297" s="50"/>
+      <c r="D297" s="50"/>
+      <c r="E297" s="50"/>
+      <c r="F297" s="50"/>
       <c r="G297" s="21"/>
       <c r="H297" s="21"/>
     </row>
@@ -5005,31 +5000,31 @@
     </row>
     <row r="303" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="22"/>
-      <c r="B303" s="50"/>
-      <c r="C303" s="50"/>
-      <c r="D303" s="50"/>
-      <c r="E303" s="50"/>
-      <c r="F303" s="50"/>
+      <c r="B303" s="51"/>
+      <c r="C303" s="51"/>
+      <c r="D303" s="51"/>
+      <c r="E303" s="51"/>
+      <c r="F303" s="51"/>
       <c r="G303" s="21"/>
       <c r="H303" s="21"/>
     </row>
     <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="22"/>
-      <c r="B304" s="50"/>
-      <c r="C304" s="50"/>
-      <c r="D304" s="50"/>
-      <c r="E304" s="50"/>
-      <c r="F304" s="50"/>
+      <c r="B304" s="51"/>
+      <c r="C304" s="51"/>
+      <c r="D304" s="51"/>
+      <c r="E304" s="51"/>
+      <c r="F304" s="51"/>
       <c r="G304" s="21"/>
       <c r="H304" s="21"/>
     </row>
     <row r="305" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
-      <c r="B305" s="50"/>
-      <c r="C305" s="50"/>
-      <c r="D305" s="50"/>
-      <c r="E305" s="50"/>
-      <c r="F305" s="50"/>
+      <c r="B305" s="51"/>
+      <c r="C305" s="51"/>
+      <c r="D305" s="51"/>
+      <c r="E305" s="51"/>
+      <c r="F305" s="51"/>
       <c r="G305" s="21"/>
       <c r="H305" s="21"/>
     </row>
@@ -5045,31 +5040,31 @@
     </row>
     <row r="307" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
-      <c r="B307" s="50"/>
-      <c r="C307" s="50"/>
-      <c r="D307" s="50"/>
-      <c r="E307" s="50"/>
-      <c r="F307" s="50"/>
+      <c r="B307" s="51"/>
+      <c r="C307" s="51"/>
+      <c r="D307" s="51"/>
+      <c r="E307" s="51"/>
+      <c r="F307" s="51"/>
       <c r="G307" s="21"/>
       <c r="H307" s="21"/>
     </row>
     <row r="308" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17"/>
-      <c r="B308" s="50"/>
-      <c r="C308" s="50"/>
-      <c r="D308" s="50"/>
-      <c r="E308" s="50"/>
-      <c r="F308" s="50"/>
+      <c r="B308" s="51"/>
+      <c r="C308" s="51"/>
+      <c r="D308" s="51"/>
+      <c r="E308" s="51"/>
+      <c r="F308" s="51"/>
       <c r="G308" s="21"/>
       <c r="H308" s="21"/>
     </row>
     <row r="309" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
-      <c r="B309" s="50"/>
-      <c r="C309" s="50"/>
-      <c r="D309" s="50"/>
-      <c r="E309" s="50"/>
-      <c r="F309" s="50"/>
+      <c r="B309" s="51"/>
+      <c r="C309" s="51"/>
+      <c r="D309" s="51"/>
+      <c r="E309" s="51"/>
+      <c r="F309" s="51"/>
       <c r="G309" s="21"/>
       <c r="H309" s="21"/>
     </row>
@@ -5085,11 +5080,11 @@
     </row>
     <row r="311" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="22"/>
-      <c r="B311" s="51"/>
-      <c r="C311" s="51"/>
-      <c r="D311" s="51"/>
-      <c r="E311" s="51"/>
-      <c r="F311" s="51"/>
+      <c r="B311" s="50"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="50"/>
+      <c r="E311" s="50"/>
+      <c r="F311" s="50"/>
       <c r="G311" s="21"/>
       <c r="H311" s="21"/>
     </row>
@@ -5145,31 +5140,31 @@
     </row>
     <row r="317" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="22"/>
-      <c r="B317" s="50"/>
-      <c r="C317" s="50"/>
-      <c r="D317" s="50"/>
-      <c r="E317" s="50"/>
-      <c r="F317" s="50"/>
+      <c r="B317" s="51"/>
+      <c r="C317" s="51"/>
+      <c r="D317" s="51"/>
+      <c r="E317" s="51"/>
+      <c r="F317" s="51"/>
       <c r="G317" s="21"/>
       <c r="H317" s="21"/>
     </row>
     <row r="318" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="22"/>
-      <c r="B318" s="50"/>
-      <c r="C318" s="50"/>
-      <c r="D318" s="50"/>
-      <c r="E318" s="50"/>
-      <c r="F318" s="50"/>
+      <c r="B318" s="51"/>
+      <c r="C318" s="51"/>
+      <c r="D318" s="51"/>
+      <c r="E318" s="51"/>
+      <c r="F318" s="51"/>
       <c r="G318" s="21"/>
       <c r="H318" s="21"/>
     </row>
     <row r="319" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
-      <c r="B319" s="50"/>
-      <c r="C319" s="50"/>
-      <c r="D319" s="50"/>
-      <c r="E319" s="50"/>
-      <c r="F319" s="50"/>
+      <c r="B319" s="51"/>
+      <c r="C319" s="51"/>
+      <c r="D319" s="51"/>
+      <c r="E319" s="51"/>
+      <c r="F319" s="51"/>
       <c r="G319" s="21"/>
       <c r="H319" s="21"/>
     </row>
@@ -5185,31 +5180,31 @@
     </row>
     <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
-      <c r="B321" s="50"/>
-      <c r="C321" s="50"/>
-      <c r="D321" s="50"/>
-      <c r="E321" s="50"/>
-      <c r="F321" s="50"/>
+      <c r="B321" s="51"/>
+      <c r="C321" s="51"/>
+      <c r="D321" s="51"/>
+      <c r="E321" s="51"/>
+      <c r="F321" s="51"/>
       <c r="G321" s="21"/>
       <c r="H321" s="21"/>
     </row>
     <row r="322" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
-      <c r="B322" s="50"/>
-      <c r="C322" s="50"/>
-      <c r="D322" s="50"/>
-      <c r="E322" s="50"/>
-      <c r="F322" s="50"/>
+      <c r="B322" s="51"/>
+      <c r="C322" s="51"/>
+      <c r="D322" s="51"/>
+      <c r="E322" s="51"/>
+      <c r="F322" s="51"/>
       <c r="G322" s="21"/>
       <c r="H322" s="21"/>
     </row>
     <row r="323" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
-      <c r="B323" s="50"/>
-      <c r="C323" s="50"/>
-      <c r="D323" s="50"/>
-      <c r="E323" s="50"/>
-      <c r="F323" s="50"/>
+      <c r="B323" s="51"/>
+      <c r="C323" s="51"/>
+      <c r="D323" s="51"/>
+      <c r="E323" s="51"/>
+      <c r="F323" s="51"/>
       <c r="G323" s="21"/>
       <c r="H323" s="21"/>
     </row>
@@ -5225,11 +5220,11 @@
     </row>
     <row r="325" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="22"/>
-      <c r="B325" s="51"/>
-      <c r="C325" s="51"/>
-      <c r="D325" s="51"/>
-      <c r="E325" s="51"/>
-      <c r="F325" s="51"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="50"/>
+      <c r="D325" s="50"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="50"/>
       <c r="G325" s="21"/>
       <c r="H325" s="21"/>
     </row>
@@ -5275,41 +5270,41 @@
     </row>
     <row r="330" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="22"/>
-      <c r="B330" s="50"/>
-      <c r="C330" s="50"/>
-      <c r="D330" s="50"/>
-      <c r="E330" s="50"/>
-      <c r="F330" s="50"/>
+      <c r="B330" s="51"/>
+      <c r="C330" s="51"/>
+      <c r="D330" s="51"/>
+      <c r="E330" s="51"/>
+      <c r="F330" s="51"/>
       <c r="G330" s="21"/>
       <c r="H330" s="21"/>
     </row>
     <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="22"/>
-      <c r="B331" s="50"/>
-      <c r="C331" s="50"/>
-      <c r="D331" s="50"/>
-      <c r="E331" s="50"/>
-      <c r="F331" s="50"/>
+      <c r="B331" s="51"/>
+      <c r="C331" s="51"/>
+      <c r="D331" s="51"/>
+      <c r="E331" s="51"/>
+      <c r="F331" s="51"/>
       <c r="G331" s="21"/>
       <c r="H331" s="21"/>
     </row>
     <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="22"/>
-      <c r="B332" s="50"/>
-      <c r="C332" s="50"/>
-      <c r="D332" s="50"/>
-      <c r="E332" s="50"/>
-      <c r="F332" s="50"/>
+      <c r="B332" s="51"/>
+      <c r="C332" s="51"/>
+      <c r="D332" s="51"/>
+      <c r="E332" s="51"/>
+      <c r="F332" s="51"/>
       <c r="G332" s="21"/>
       <c r="H332" s="21"/>
     </row>
     <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17"/>
-      <c r="B333" s="50"/>
-      <c r="C333" s="50"/>
-      <c r="D333" s="50"/>
-      <c r="E333" s="50"/>
-      <c r="F333" s="50"/>
+      <c r="B333" s="51"/>
+      <c r="C333" s="51"/>
+      <c r="D333" s="51"/>
+      <c r="E333" s="51"/>
+      <c r="F333" s="51"/>
       <c r="G333" s="21"/>
       <c r="H333" s="21"/>
     </row>
@@ -5335,31 +5330,31 @@
     </row>
     <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="17"/>
-      <c r="B336" s="50"/>
-      <c r="C336" s="50"/>
-      <c r="D336" s="50"/>
-      <c r="E336" s="50"/>
-      <c r="F336" s="50"/>
+      <c r="B336" s="51"/>
+      <c r="C336" s="51"/>
+      <c r="D336" s="51"/>
+      <c r="E336" s="51"/>
+      <c r="F336" s="51"/>
       <c r="G336" s="21"/>
       <c r="H336" s="21"/>
     </row>
     <row r="337" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
-      <c r="B337" s="50"/>
-      <c r="C337" s="50"/>
-      <c r="D337" s="50"/>
-      <c r="E337" s="50"/>
-      <c r="F337" s="50"/>
+      <c r="B337" s="51"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="51"/>
+      <c r="E337" s="51"/>
+      <c r="F337" s="51"/>
       <c r="G337" s="21"/>
       <c r="H337" s="21"/>
     </row>
     <row r="338" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
-      <c r="B338" s="50"/>
-      <c r="C338" s="50"/>
-      <c r="D338" s="50"/>
-      <c r="E338" s="50"/>
-      <c r="F338" s="50"/>
+      <c r="B338" s="51"/>
+      <c r="C338" s="51"/>
+      <c r="D338" s="51"/>
+      <c r="E338" s="51"/>
+      <c r="F338" s="51"/>
       <c r="G338" s="21"/>
       <c r="H338" s="21"/>
     </row>
@@ -5375,11 +5370,11 @@
     </row>
     <row r="340" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="22"/>
-      <c r="B340" s="51"/>
-      <c r="C340" s="51"/>
-      <c r="D340" s="51"/>
-      <c r="E340" s="51"/>
-      <c r="F340" s="51"/>
+      <c r="B340" s="50"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="50"/>
+      <c r="E340" s="50"/>
+      <c r="F340" s="50"/>
       <c r="G340" s="21"/>
       <c r="H340" s="21"/>
     </row>
@@ -5425,41 +5420,41 @@
     </row>
     <row r="345" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="22"/>
-      <c r="B345" s="50"/>
-      <c r="C345" s="50"/>
-      <c r="D345" s="50"/>
-      <c r="E345" s="50"/>
-      <c r="F345" s="50"/>
+      <c r="B345" s="51"/>
+      <c r="C345" s="51"/>
+      <c r="D345" s="51"/>
+      <c r="E345" s="51"/>
+      <c r="F345" s="51"/>
       <c r="G345" s="21"/>
       <c r="H345" s="21"/>
     </row>
     <row r="346" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="22"/>
-      <c r="B346" s="50"/>
-      <c r="C346" s="50"/>
-      <c r="D346" s="50"/>
-      <c r="E346" s="50"/>
-      <c r="F346" s="50"/>
+      <c r="B346" s="51"/>
+      <c r="C346" s="51"/>
+      <c r="D346" s="51"/>
+      <c r="E346" s="51"/>
+      <c r="F346" s="51"/>
       <c r="G346" s="21"/>
       <c r="H346" s="21"/>
     </row>
     <row r="347" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="22"/>
-      <c r="B347" s="50"/>
-      <c r="C347" s="50"/>
-      <c r="D347" s="50"/>
-      <c r="E347" s="50"/>
-      <c r="F347" s="50"/>
+      <c r="B347" s="51"/>
+      <c r="C347" s="51"/>
+      <c r="D347" s="51"/>
+      <c r="E347" s="51"/>
+      <c r="F347" s="51"/>
       <c r="G347" s="21"/>
       <c r="H347" s="21"/>
     </row>
     <row r="348" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="17"/>
-      <c r="B348" s="50"/>
-      <c r="C348" s="50"/>
-      <c r="D348" s="50"/>
-      <c r="E348" s="50"/>
-      <c r="F348" s="50"/>
+      <c r="B348" s="51"/>
+      <c r="C348" s="51"/>
+      <c r="D348" s="51"/>
+      <c r="E348" s="51"/>
+      <c r="F348" s="51"/>
       <c r="G348" s="21"/>
       <c r="H348" s="21"/>
     </row>
@@ -5475,41 +5470,41 @@
     </row>
     <row r="350" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="17"/>
-      <c r="B350" s="50"/>
-      <c r="C350" s="50"/>
-      <c r="D350" s="50"/>
-      <c r="E350" s="50"/>
-      <c r="F350" s="50"/>
+      <c r="B350" s="51"/>
+      <c r="C350" s="51"/>
+      <c r="D350" s="51"/>
+      <c r="E350" s="51"/>
+      <c r="F350" s="51"/>
       <c r="G350" s="21"/>
       <c r="H350" s="21"/>
     </row>
     <row r="351" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="17"/>
-      <c r="B351" s="50"/>
-      <c r="C351" s="50"/>
-      <c r="D351" s="50"/>
-      <c r="E351" s="50"/>
-      <c r="F351" s="50"/>
+      <c r="B351" s="51"/>
+      <c r="C351" s="51"/>
+      <c r="D351" s="51"/>
+      <c r="E351" s="51"/>
+      <c r="F351" s="51"/>
       <c r="G351" s="21"/>
       <c r="H351" s="21"/>
     </row>
     <row r="352" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
-      <c r="B352" s="50"/>
-      <c r="C352" s="50"/>
-      <c r="D352" s="50"/>
-      <c r="E352" s="50"/>
-      <c r="F352" s="50"/>
+      <c r="B352" s="51"/>
+      <c r="C352" s="51"/>
+      <c r="D352" s="51"/>
+      <c r="E352" s="51"/>
+      <c r="F352" s="51"/>
       <c r="G352" s="21"/>
       <c r="H352" s="21"/>
     </row>
     <row r="353" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
-      <c r="B353" s="50"/>
-      <c r="C353" s="50"/>
-      <c r="D353" s="50"/>
-      <c r="E353" s="50"/>
-      <c r="F353" s="50"/>
+      <c r="B353" s="51"/>
+      <c r="C353" s="51"/>
+      <c r="D353" s="51"/>
+      <c r="E353" s="51"/>
+      <c r="F353" s="51"/>
       <c r="G353" s="21"/>
       <c r="H353" s="21"/>
     </row>
@@ -5525,11 +5520,11 @@
     </row>
     <row r="355" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="22"/>
-      <c r="B355" s="51"/>
-      <c r="C355" s="51"/>
-      <c r="D355" s="51"/>
-      <c r="E355" s="51"/>
-      <c r="F355" s="51"/>
+      <c r="B355" s="50"/>
+      <c r="C355" s="50"/>
+      <c r="D355" s="50"/>
+      <c r="E355" s="50"/>
+      <c r="F355" s="50"/>
       <c r="G355" s="21"/>
       <c r="H355" s="21"/>
     </row>
@@ -5575,9 +5570,9 @@
     </row>
     <row r="360" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="22"/>
-      <c r="B360" s="50"/>
-      <c r="C360" s="50"/>
-      <c r="D360" s="50"/>
+      <c r="B360" s="51"/>
+      <c r="C360" s="51"/>
+      <c r="D360" s="51"/>
       <c r="E360" s="20"/>
       <c r="F360" s="23"/>
       <c r="G360" s="21"/>
@@ -5585,9 +5580,9 @@
     </row>
     <row r="361" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="22"/>
-      <c r="B361" s="50"/>
-      <c r="C361" s="50"/>
-      <c r="D361" s="50"/>
+      <c r="B361" s="51"/>
+      <c r="C361" s="51"/>
+      <c r="D361" s="51"/>
       <c r="E361" s="20"/>
       <c r="F361" s="23"/>
       <c r="G361" s="21"/>
@@ -5595,9 +5590,9 @@
     </row>
     <row r="362" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="22"/>
-      <c r="B362" s="50"/>
-      <c r="C362" s="50"/>
-      <c r="D362" s="50"/>
+      <c r="B362" s="51"/>
+      <c r="C362" s="51"/>
+      <c r="D362" s="51"/>
       <c r="E362" s="20"/>
       <c r="F362" s="23"/>
       <c r="G362" s="21"/>
@@ -5605,9 +5600,9 @@
     </row>
     <row r="363" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="17"/>
-      <c r="B363" s="50"/>
-      <c r="C363" s="50"/>
-      <c r="D363" s="50"/>
+      <c r="B363" s="51"/>
+      <c r="C363" s="51"/>
+      <c r="D363" s="51"/>
       <c r="E363" s="20"/>
       <c r="F363" s="23"/>
       <c r="G363" s="21"/>
@@ -5625,9 +5620,9 @@
     </row>
     <row r="365" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="17"/>
-      <c r="B365" s="50"/>
-      <c r="C365" s="50"/>
-      <c r="D365" s="50"/>
+      <c r="B365" s="51"/>
+      <c r="C365" s="51"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="20"/>
       <c r="F365" s="23"/>
       <c r="G365" s="21"/>
@@ -5635,9 +5630,9 @@
     </row>
     <row r="366" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="17"/>
-      <c r="B366" s="50"/>
-      <c r="C366" s="50"/>
-      <c r="D366" s="50"/>
+      <c r="B366" s="51"/>
+      <c r="C366" s="51"/>
+      <c r="D366" s="51"/>
       <c r="E366" s="20"/>
       <c r="F366" s="23"/>
       <c r="G366" s="21"/>
@@ -5645,9 +5640,9 @@
     </row>
     <row r="367" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
-      <c r="B367" s="50"/>
-      <c r="C367" s="50"/>
-      <c r="D367" s="50"/>
+      <c r="B367" s="51"/>
+      <c r="C367" s="51"/>
+      <c r="D367" s="51"/>
       <c r="E367" s="20"/>
       <c r="F367" s="23"/>
       <c r="G367" s="21"/>
@@ -5655,9 +5650,9 @@
     </row>
     <row r="368" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
-      <c r="B368" s="50"/>
-      <c r="C368" s="50"/>
-      <c r="D368" s="50"/>
+      <c r="B368" s="51"/>
+      <c r="C368" s="51"/>
+      <c r="D368" s="51"/>
       <c r="E368" s="20"/>
       <c r="F368" s="23"/>
       <c r="G368" s="21"/>
@@ -5675,9 +5670,9 @@
     </row>
     <row r="370" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="22"/>
-      <c r="B370" s="51"/>
-      <c r="C370" s="51"/>
-      <c r="D370" s="51"/>
+      <c r="B370" s="50"/>
+      <c r="C370" s="50"/>
+      <c r="D370" s="50"/>
       <c r="E370" s="27"/>
       <c r="F370" s="24"/>
       <c r="G370" s="21"/>
@@ -5805,11 +5800,11 @@
     </row>
     <row r="383" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="22"/>
-      <c r="B383" s="51"/>
-      <c r="C383" s="51"/>
-      <c r="D383" s="51"/>
-      <c r="E383" s="51"/>
-      <c r="F383" s="51"/>
+      <c r="B383" s="50"/>
+      <c r="C383" s="50"/>
+      <c r="D383" s="50"/>
+      <c r="E383" s="50"/>
+      <c r="F383" s="50"/>
       <c r="G383" s="21"/>
       <c r="H383" s="21"/>
     </row>
@@ -5935,11 +5930,11 @@
     </row>
     <row r="396" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="22"/>
-      <c r="B396" s="51"/>
-      <c r="C396" s="51"/>
-      <c r="D396" s="51"/>
-      <c r="E396" s="51"/>
-      <c r="F396" s="51"/>
+      <c r="B396" s="50"/>
+      <c r="C396" s="50"/>
+      <c r="D396" s="50"/>
+      <c r="E396" s="50"/>
+      <c r="F396" s="50"/>
       <c r="G396" s="21"/>
       <c r="H396" s="21"/>
     </row>
@@ -6065,11 +6060,11 @@
     </row>
     <row r="409" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="22"/>
-      <c r="B409" s="51"/>
-      <c r="C409" s="51"/>
-      <c r="D409" s="51"/>
-      <c r="E409" s="51"/>
-      <c r="F409" s="51"/>
+      <c r="B409" s="50"/>
+      <c r="C409" s="50"/>
+      <c r="D409" s="50"/>
+      <c r="E409" s="50"/>
+      <c r="F409" s="50"/>
       <c r="G409" s="21"/>
       <c r="H409" s="21"/>
     </row>
@@ -6195,11 +6190,11 @@
     </row>
     <row r="422" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="22"/>
-      <c r="B422" s="51"/>
-      <c r="C422" s="51"/>
-      <c r="D422" s="51"/>
-      <c r="E422" s="51"/>
-      <c r="F422" s="51"/>
+      <c r="B422" s="50"/>
+      <c r="C422" s="50"/>
+      <c r="D422" s="50"/>
+      <c r="E422" s="50"/>
+      <c r="F422" s="50"/>
       <c r="G422" s="21"/>
       <c r="H422" s="21"/>
     </row>
@@ -6325,11 +6320,11 @@
     </row>
     <row r="435" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="22"/>
-      <c r="B435" s="51"/>
-      <c r="C435" s="51"/>
-      <c r="D435" s="51"/>
-      <c r="E435" s="51"/>
-      <c r="F435" s="51"/>
+      <c r="B435" s="50"/>
+      <c r="C435" s="50"/>
+      <c r="D435" s="50"/>
+      <c r="E435" s="50"/>
+      <c r="F435" s="50"/>
       <c r="G435" s="21"/>
       <c r="H435" s="21"/>
     </row>
@@ -6455,11 +6450,11 @@
     </row>
     <row r="448" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="22"/>
-      <c r="B448" s="51"/>
-      <c r="C448" s="51"/>
-      <c r="D448" s="51"/>
-      <c r="E448" s="51"/>
-      <c r="F448" s="51"/>
+      <c r="B448" s="50"/>
+      <c r="C448" s="50"/>
+      <c r="D448" s="50"/>
+      <c r="E448" s="50"/>
+      <c r="F448" s="50"/>
       <c r="G448" s="21"/>
       <c r="H448" s="21"/>
     </row>
@@ -6585,11 +6580,11 @@
     </row>
     <row r="461" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="22"/>
-      <c r="B461" s="51"/>
-      <c r="C461" s="51"/>
-      <c r="D461" s="51"/>
-      <c r="E461" s="51"/>
-      <c r="F461" s="51"/>
+      <c r="B461" s="50"/>
+      <c r="C461" s="50"/>
+      <c r="D461" s="50"/>
+      <c r="E461" s="50"/>
+      <c r="F461" s="50"/>
       <c r="G461" s="21"/>
       <c r="H461" s="21"/>
     </row>
@@ -6715,11 +6710,11 @@
     </row>
     <row r="474" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="22"/>
-      <c r="B474" s="51"/>
-      <c r="C474" s="51"/>
-      <c r="D474" s="51"/>
-      <c r="E474" s="51"/>
-      <c r="F474" s="51"/>
+      <c r="B474" s="50"/>
+      <c r="C474" s="50"/>
+      <c r="D474" s="50"/>
+      <c r="E474" s="50"/>
+      <c r="F474" s="50"/>
       <c r="G474" s="21"/>
       <c r="H474" s="21"/>
     </row>
@@ -6846,10 +6841,10 @@
     <row r="487" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="22"/>
       <c r="B487" s="27"/>
-      <c r="C487" s="51"/>
-      <c r="D487" s="51"/>
-      <c r="E487" s="51"/>
-      <c r="F487" s="51"/>
+      <c r="C487" s="50"/>
+      <c r="D487" s="50"/>
+      <c r="E487" s="50"/>
+      <c r="F487" s="50"/>
       <c r="G487" s="21"/>
       <c r="H487" s="21"/>
     </row>
@@ -6975,11 +6970,11 @@
     </row>
     <row r="500" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="22"/>
-      <c r="B500" s="51"/>
-      <c r="C500" s="51"/>
-      <c r="D500" s="51"/>
-      <c r="E500" s="51"/>
-      <c r="F500" s="51"/>
+      <c r="B500" s="50"/>
+      <c r="C500" s="50"/>
+      <c r="D500" s="50"/>
+      <c r="E500" s="50"/>
+      <c r="F500" s="50"/>
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
@@ -7105,11 +7100,11 @@
     </row>
     <row r="513" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="22"/>
-      <c r="B513" s="51"/>
-      <c r="C513" s="51"/>
-      <c r="D513" s="51"/>
-      <c r="E513" s="51"/>
-      <c r="F513" s="51"/>
+      <c r="B513" s="50"/>
+      <c r="C513" s="50"/>
+      <c r="D513" s="50"/>
+      <c r="E513" s="50"/>
+      <c r="F513" s="50"/>
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
@@ -7235,11 +7230,11 @@
     </row>
     <row r="526" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="22"/>
-      <c r="B526" s="51"/>
-      <c r="C526" s="51"/>
-      <c r="D526" s="51"/>
-      <c r="E526" s="51"/>
-      <c r="F526" s="51"/>
+      <c r="B526" s="50"/>
+      <c r="C526" s="50"/>
+      <c r="D526" s="50"/>
+      <c r="E526" s="50"/>
+      <c r="F526" s="50"/>
       <c r="G526" s="21"/>
       <c r="H526" s="21"/>
     </row>
@@ -7365,11 +7360,11 @@
     </row>
     <row r="539" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="22"/>
-      <c r="B539" s="51"/>
-      <c r="C539" s="51"/>
-      <c r="D539" s="51"/>
-      <c r="E539" s="51"/>
-      <c r="F539" s="51"/>
+      <c r="B539" s="50"/>
+      <c r="C539" s="50"/>
+      <c r="D539" s="50"/>
+      <c r="E539" s="50"/>
+      <c r="F539" s="50"/>
       <c r="G539" s="21"/>
       <c r="H539" s="21"/>
     </row>
@@ -7495,11 +7490,11 @@
     </row>
     <row r="552" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="22"/>
-      <c r="B552" s="51"/>
-      <c r="C552" s="51"/>
-      <c r="D552" s="51"/>
-      <c r="E552" s="51"/>
-      <c r="F552" s="51"/>
+      <c r="B552" s="50"/>
+      <c r="C552" s="50"/>
+      <c r="D552" s="50"/>
+      <c r="E552" s="50"/>
+      <c r="F552" s="50"/>
       <c r="G552" s="21"/>
       <c r="H552" s="21"/>
     </row>
@@ -7625,11 +7620,11 @@
     </row>
     <row r="565" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="22"/>
-      <c r="B565" s="51"/>
-      <c r="C565" s="51"/>
-      <c r="D565" s="51"/>
-      <c r="E565" s="51"/>
-      <c r="F565" s="51"/>
+      <c r="B565" s="50"/>
+      <c r="C565" s="50"/>
+      <c r="D565" s="50"/>
+      <c r="E565" s="50"/>
+      <c r="F565" s="50"/>
       <c r="G565" s="21"/>
       <c r="H565" s="21"/>
     </row>
@@ -7755,11 +7750,11 @@
     </row>
     <row r="578" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="22"/>
-      <c r="B578" s="51"/>
-      <c r="C578" s="51"/>
-      <c r="D578" s="51"/>
-      <c r="E578" s="51"/>
-      <c r="F578" s="51"/>
+      <c r="B578" s="50"/>
+      <c r="C578" s="50"/>
+      <c r="D578" s="50"/>
+      <c r="E578" s="50"/>
+      <c r="F578" s="50"/>
       <c r="G578" s="21"/>
       <c r="H578" s="21"/>
     </row>
@@ -7885,11 +7880,11 @@
     </row>
     <row r="591" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="22"/>
-      <c r="B591" s="51"/>
-      <c r="C591" s="51"/>
-      <c r="D591" s="51"/>
-      <c r="E591" s="51"/>
-      <c r="F591" s="51"/>
+      <c r="B591" s="50"/>
+      <c r="C591" s="50"/>
+      <c r="D591" s="50"/>
+      <c r="E591" s="50"/>
+      <c r="F591" s="50"/>
       <c r="G591" s="21"/>
       <c r="H591" s="21"/>
     </row>
@@ -8015,11 +8010,11 @@
     </row>
     <row r="604" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="22"/>
-      <c r="B604" s="51"/>
-      <c r="C604" s="51"/>
-      <c r="D604" s="51"/>
-      <c r="E604" s="51"/>
-      <c r="F604" s="51"/>
+      <c r="B604" s="50"/>
+      <c r="C604" s="50"/>
+      <c r="D604" s="50"/>
+      <c r="E604" s="50"/>
+      <c r="F604" s="50"/>
       <c r="G604" s="21"/>
       <c r="H604" s="21"/>
     </row>
@@ -8145,11 +8140,11 @@
     </row>
     <row r="617" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="22"/>
-      <c r="B617" s="51"/>
-      <c r="C617" s="51"/>
-      <c r="D617" s="51"/>
-      <c r="E617" s="51"/>
-      <c r="F617" s="51"/>
+      <c r="B617" s="50"/>
+      <c r="C617" s="50"/>
+      <c r="D617" s="50"/>
+      <c r="E617" s="50"/>
+      <c r="F617" s="50"/>
       <c r="G617" s="21"/>
       <c r="H617" s="21"/>
     </row>
@@ -8275,11 +8270,11 @@
     </row>
     <row r="630" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="22"/>
-      <c r="B630" s="51"/>
-      <c r="C630" s="51"/>
-      <c r="D630" s="51"/>
-      <c r="E630" s="51"/>
-      <c r="F630" s="51"/>
+      <c r="B630" s="50"/>
+      <c r="C630" s="50"/>
+      <c r="D630" s="50"/>
+      <c r="E630" s="50"/>
+      <c r="F630" s="50"/>
       <c r="G630" s="21"/>
       <c r="H630" s="21"/>
     </row>
@@ -8405,9 +8400,9 @@
     </row>
     <row r="643" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="22"/>
-      <c r="B643" s="51"/>
-      <c r="C643" s="51"/>
-      <c r="D643" s="51"/>
+      <c r="B643" s="50"/>
+      <c r="C643" s="50"/>
+      <c r="D643" s="50"/>
       <c r="E643" s="27"/>
       <c r="F643" s="27"/>
       <c r="G643" s="21"/>
@@ -8535,11 +8530,11 @@
     </row>
     <row r="656" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="22"/>
-      <c r="B656" s="51"/>
-      <c r="C656" s="51"/>
-      <c r="D656" s="51"/>
-      <c r="E656" s="51"/>
-      <c r="F656" s="51"/>
+      <c r="B656" s="50"/>
+      <c r="C656" s="50"/>
+      <c r="D656" s="50"/>
+      <c r="E656" s="50"/>
+      <c r="F656" s="50"/>
       <c r="G656" s="21"/>
       <c r="H656" s="21"/>
     </row>
@@ -8665,11 +8660,11 @@
     </row>
     <row r="669" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="22"/>
-      <c r="B669" s="51"/>
-      <c r="C669" s="51"/>
-      <c r="D669" s="51"/>
-      <c r="E669" s="51"/>
-      <c r="F669" s="51"/>
+      <c r="B669" s="50"/>
+      <c r="C669" s="50"/>
+      <c r="D669" s="50"/>
+      <c r="E669" s="50"/>
+      <c r="F669" s="50"/>
       <c r="G669" s="21"/>
       <c r="H669" s="21"/>
     </row>
@@ -8795,11 +8790,11 @@
     </row>
     <row r="682" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="22"/>
-      <c r="B682" s="51"/>
-      <c r="C682" s="51"/>
-      <c r="D682" s="51"/>
-      <c r="E682" s="51"/>
-      <c r="F682" s="51"/>
+      <c r="B682" s="50"/>
+      <c r="C682" s="50"/>
+      <c r="D682" s="50"/>
+      <c r="E682" s="50"/>
+      <c r="F682" s="50"/>
       <c r="G682" s="21"/>
       <c r="H682" s="21"/>
     </row>
@@ -8928,8 +8923,8 @@
       <c r="B695" s="24"/>
       <c r="C695" s="27"/>
       <c r="D695" s="27"/>
-      <c r="E695" s="51"/>
-      <c r="F695" s="51"/>
+      <c r="E695" s="50"/>
+      <c r="F695" s="50"/>
       <c r="G695" s="21"/>
       <c r="H695" s="21"/>
     </row>
@@ -9055,11 +9050,11 @@
     </row>
     <row r="708" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="22"/>
-      <c r="B708" s="51"/>
-      <c r="C708" s="51"/>
+      <c r="B708" s="50"/>
+      <c r="C708" s="50"/>
       <c r="D708" s="27"/>
-      <c r="E708" s="51"/>
-      <c r="F708" s="51"/>
+      <c r="E708" s="50"/>
+      <c r="F708" s="50"/>
       <c r="G708" s="21"/>
       <c r="H708" s="21"/>
     </row>
@@ -9080,6 +9075,147 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="165">
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C295:F295"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="C297:F297"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="E708:F708"/>
+    <mergeCell ref="E695:F695"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B643:D643"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="C487:F487"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B351:F351"/>
     <mergeCell ref="B448:F448"/>
     <mergeCell ref="B366:D366"/>
     <mergeCell ref="D245:F245"/>
@@ -9104,373 +9240,10 @@
     <mergeCell ref="B318:F318"/>
     <mergeCell ref="B317:F317"/>
     <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="C487:F487"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="E708:F708"/>
-    <mergeCell ref="E695:F695"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B643:D643"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="C297:F297"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C295:F295"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B137:F137"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup scale="45" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C52AC05ABFE72848B064B29BAAE56978" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e46e943270ee26bd29fcd296d6dc0391">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d7f988bb-f583-49a7-b3d9-d97123f42079" xmlns:ns3="3edb9f2a-be93-48b2-8353-85a0a13fb21f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="500a4c8be8b02aa6735dedf3aecdc3bf" ns2:_="" ns3:_="">
-    <xsd:import namespace="d7f988bb-f583-49a7-b3d9-d97123f42079"/>
-    <xsd:import namespace="3edb9f2a-be93-48b2-8353-85a0a13fb21f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d7f988bb-f583-49a7-b3d9-d97123f42079" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3edb9f2a-be93-48b2-8353-85a0a13fb21f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1294CE1-7D2C-4304-B992-670D67B17C6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80FE525-8B83-4691-86E0-0CA5EFF1F83B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D1DCC7-5662-4D3A-BFAB-AD438884EE5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d7f988bb-f583-49a7-b3d9-d97123f42079"/>
-    <ds:schemaRef ds:uri="3edb9f2a-be93-48b2-8353-85a0a13fb21f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>